--- a/public/temp/Jadepay_Onboarded_Customer_Data_Template.xlsx
+++ b/public/temp/Jadepay_Onboarded_Customer_Data_Template.xlsx
@@ -8,9 +8,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$AI$2</definedName>
-  </definedNames>
   <calcPr/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
@@ -19,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
-    <t>No.</t>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
   </si>
   <si>
     <t>Name</t>
@@ -30,23 +30,23 @@
     <t xml:space="preserve">Phone Number</t>
   </si>
   <si>
-    <t xml:space="preserve">Passport </t>
+    <t>Passport</t>
   </si>
   <si>
     <t xml:space="preserve">DOB 
 (MM/DD/YYYY)</t>
   </si>
   <si>
-    <t xml:space="preserve">Issue Date </t>
+    <t xml:space="preserve">Issue Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Expire Date </t>
+    <t xml:space="preserve">Expire Date</t>
   </si>
   <si>
     <t xml:space="preserve">Issue Country</t>
   </si>
   <si>
-    <t xml:space="preserve">Gender </t>
+    <t>Gender</t>
   </si>
   <si>
     <t>Status</t>
@@ -76,25 +76,22 @@
     <t xml:space="preserve">Name List</t>
   </si>
   <si>
-    <t xml:space="preserve">Receipt of Work permit</t>
+    <t xml:space="preserve">Receiept of work permit</t>
   </si>
   <si>
     <t xml:space="preserve">Work Permit</t>
   </si>
   <si>
-    <t xml:space="preserve">Pink Card </t>
+    <t xml:space="preserve">Pink Card</t>
   </si>
   <si>
-    <t xml:space="preserve">Exprie Date </t>
+    <t xml:space="preserve">Exprie Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Issue Country </t>
+    <t xml:space="preserve">Company Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Company Name </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address </t>
+    <t>Address</t>
   </si>
   <si>
     <t>Town</t>
@@ -115,19 +112,16 @@
     <t xml:space="preserve">Monthly Income</t>
   </si>
   <si>
-    <t xml:space="preserve">Nationality </t>
+    <t>Nationality</t>
   </si>
   <si>
-    <t xml:space="preserve">Occupation </t>
+    <t>Occupation</t>
   </si>
   <si>
-    <t xml:space="preserve">Other Occupation </t>
+    <t xml:space="preserve">Other Occupation</t>
   </si>
   <si>
     <t xml:space="preserve">Resident Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Work permit</t>
   </si>
 </sst>
 </file>
@@ -145,20 +139,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.000000"/>
+      <color indexed="64"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="10.000000"/>
-      <color indexed="65"/>
+      <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10.000000"/>
-      <color indexed="65"/>
-      <name val="Roboto"/>
     </font>
     <font>
       <u/>
@@ -167,7 +158,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,14 +167,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE69138"/>
-        <bgColor rgb="FFE69138"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="2"/>
-        <bgColor indexed="2"/>
+        <fgColor indexed="65"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -241,8 +226,12 @@
       <diagonal style="none"/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
+      <left style="thin">
+        <color rgb="FFFF6D01"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
       <top style="thin">
         <color rgb="FF442F65"/>
       </top>
@@ -253,7 +242,7 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFF6D01"/>
+        <color rgb="FFBF9000"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
@@ -300,173 +289,107 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+  <cellXfs count="16">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf fontId="3" fillId="0" borderId="6" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf fontId="3" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf fontId="2" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="2" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="7" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="3" borderId="6" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="3" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="7" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="3" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="3" borderId="7" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="3" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="7" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="3" borderId="7" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="3" borderId="7" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="2">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="10.000000"/>
-        <color indexed="4"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-      <alignment indent="0" readingOrder="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
-      <border>
-        <left style="thin">
-          <color rgb="FFD9EAD3"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFD9EAD3"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFD9EAD3"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFD9EAD3"/>
-        </bottom>
-        <diagonal style="none"/>
-        <vertical style="none"/>
-        <horizontal style="none"/>
-      </border>
-    </dxf>
-    <dxf>
+      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="65"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <diagonal/>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF5B3F86"/>
-          <bgColor rgb="FF5B3F86"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
+      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFF8F9FA"/>
           <bgColor rgb="FFF8F9FA"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF5B3F86"/>
-          <bgColor rgb="FF5B3F86"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF8F9FA"/>
-          <bgColor rgb="FFF8F9FA"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <diagonal/>
+      </border>
     </dxf>
   </dxfs>
-  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Form Responses 1-style" pivot="0" count="3">
-      <tableStyleElement type="firstRowStripe" size="1" dxfId="1"/>
-      <tableStyleElement type="headerRow" size="1" dxfId="2"/>
-      <tableStyleElement type="secondRowStripe" size="1" dxfId="3"/>
-    </tableStyle>
-    <tableStyle name="2007-style" pivot="0" count="3">
-      <tableStyleElement type="firstRowStripe" size="1" dxfId="4"/>
-      <tableStyleElement type="headerRow" size="1" dxfId="5"/>
-      <tableStyleElement type="secondRowStripe" size="1" dxfId="6"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Sheet1-style" pivot="0" count="2">
+      <tableStyleElement type="firstRowStripe" size="1" dxfId="0"/>
+      <tableStyleElement type="secondRowStripe" size="1" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="Form_Responses" ref="B1:AI2" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="Table_1" ref="B1:AI2" headerRowCount="0">
   <tableColumns count="34">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
@@ -486,24 +409,24 @@
     <tableColumn id="16" name="Column16"/>
     <tableColumn id="17" name="Column17"/>
     <tableColumn id="18" name="Column18"/>
-    <tableColumn id="19" name="Column34" dataDxfId="0"/>
-    <tableColumn id="20" name="Column19"/>
-    <tableColumn id="21" name="Column20"/>
-    <tableColumn id="22" name="Column21"/>
-    <tableColumn id="23" name="Column22"/>
-    <tableColumn id="24" name="Column23"/>
-    <tableColumn id="25" name="Column24"/>
-    <tableColumn id="26" name="Column25"/>
-    <tableColumn id="27" name="Column26"/>
-    <tableColumn id="28" name="Column27"/>
-    <tableColumn id="29" name="Column28"/>
-    <tableColumn id="30" name="Column29"/>
-    <tableColumn id="31" name="Column30"/>
-    <tableColumn id="32" name="Column31"/>
-    <tableColumn id="33" name="Column32"/>
-    <tableColumn id="34" name="Column33"/>
+    <tableColumn id="19" name="Column19"/>
+    <tableColumn id="20" name="Column20"/>
+    <tableColumn id="21" name="Column21"/>
+    <tableColumn id="22" name="Column22"/>
+    <tableColumn id="23" name="Column23"/>
+    <tableColumn id="24" name="Column24"/>
+    <tableColumn id="25" name="Column25"/>
+    <tableColumn id="26" name="Column26"/>
+    <tableColumn id="27" name="Column27"/>
+    <tableColumn id="28" name="Column28"/>
+    <tableColumn id="29" name="Column29"/>
+    <tableColumn id="30" name="Column30"/>
+    <tableColumn id="31" name="Column31"/>
+    <tableColumn id="32" name="Column32"/>
+    <tableColumn id="33" name="Column33"/>
+    <tableColumn id="34" name="Column34"/>
   </tableColumns>
-  <tableStyleInfo name="Form Responses 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="Sheet1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -992,213 +915,3193 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="A1" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="AC1" zoomScale="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.630000000000001" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="1" width="3.77734375"/>
-    <col customWidth="1" min="2" max="3" width="18.88671875"/>
-    <col customWidth="1" min="4" max="4" width="13.77734375"/>
+    <col customWidth="1" min="1" max="1" width="3.75"/>
+    <col customWidth="1" min="2" max="3" width="18.879999999999999"/>
+    <col customWidth="1" min="4" max="4" width="13.75"/>
     <col customWidth="1" min="5" max="5" width="13"/>
-    <col customWidth="1" min="6" max="6" width="15.5546875"/>
+    <col customWidth="1" min="6" max="6" width="15.5"/>
     <col customWidth="1" min="7" max="7" width="15"/>
-    <col customWidth="1" min="8" max="8" width="14.88671875"/>
-    <col customWidth="1" min="9" max="9" width="15.44140625"/>
-    <col bestFit="1" customWidth="1" min="10" max="10" width="7.5546875"/>
-    <col bestFit="1" customWidth="1" min="11" max="11" width="7.21875"/>
-    <col bestFit="1" customWidth="1" min="12" max="12" width="29"/>
-    <col customWidth="1" min="13" max="14" width="18.88671875"/>
+    <col customWidth="1" min="8" max="8" width="14.880000000000001"/>
+    <col customWidth="1" min="9" max="9" width="15.5"/>
+    <col customWidth="1" min="10" max="10" width="7.5"/>
+    <col customWidth="1" min="11" max="11" width="7.25"/>
+    <col customWidth="1" min="12" max="12" width="29"/>
+    <col customWidth="1" min="13" max="14" width="18.879999999999999"/>
     <col customWidth="1" min="15" max="15" width="19"/>
-    <col customWidth="1" min="16" max="21" width="18.88671875"/>
-    <col customWidth="1" min="22" max="22" width="12.88671875"/>
-    <col customWidth="1" min="23" max="23" width="13.88671875"/>
-    <col customWidth="1" min="24" max="24" width="15.21875"/>
-    <col customWidth="1" min="25" max="25" width="12.21875"/>
-    <col customWidth="1" min="26" max="27" width="18.88671875"/>
-    <col customWidth="1" min="28" max="28" width="13.33203125"/>
-    <col customWidth="1" min="29" max="29" width="18.88671875"/>
-    <col customWidth="1" min="30" max="30" width="15.33203125"/>
-    <col customWidth="1" min="31" max="31" width="11.88671875"/>
-    <col customWidth="1" min="32" max="32" width="96.109375"/>
-    <col customWidth="1" min="33" max="35" width="18.88671875"/>
-    <col customWidth="1" min="36" max="36" width="24.7109375"/>
+    <col customWidth="1" min="16" max="21" width="18.879999999999999"/>
+    <col customWidth="1" min="22" max="22" width="12.880000000000001"/>
+    <col customWidth="1" min="23" max="23" width="13.880000000000001"/>
+    <col customWidth="1" min="24" max="24" width="15.25"/>
+    <col customWidth="1" min="25" max="25" width="12.25"/>
+    <col customWidth="1" min="26" max="27" width="18.879999999999999"/>
+    <col customWidth="1" min="28" max="28" width="13.380000000000001"/>
+    <col customWidth="1" min="29" max="29" width="18.879999999999999"/>
+    <col customWidth="1" min="30" max="30" width="15.380000000000001"/>
+    <col customWidth="1" min="31" max="31" width="11.880000000000001"/>
+    <col customWidth="1" min="32" max="32" width="27.8515625"/>
+    <col customWidth="1" min="33" max="35" width="18.879999999999999"/>
+    <col customWidth="1" min="36" max="36" width="24.75"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="21.600000000000001" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="21" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="X1" s="5" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="W1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Y1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AF1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AH1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AI1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AK1" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" ht="13.199999999999999">
-      <c r="A2" s="10">
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
-      <c r="AK2" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="1"/>
+      <c r="A3" s="7"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="1"/>
+      <c r="A4" s="7"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="1"/>
+      <c r="A5" s="7"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="1"/>
+      <c r="A6" s="7"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="1"/>
+      <c r="A7" s="7"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="7"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="7"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="7"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="7"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="7"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="7"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="7"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="7"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="7"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="7"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="7"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="7"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="7"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="7"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="7"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="7"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="7"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="7"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="7"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="7"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="7"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="7"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="7"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="7"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="7"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="7"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="7"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="7"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="7"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="7"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="7"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="7"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="7"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="7"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="7"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="7"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="7"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="7"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="7"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="7"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="7"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="7"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="7"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="7"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="7"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="7"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="7"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="7"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="7"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="7"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="7"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="7"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="7"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="7"/>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="7"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="7"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="7"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="7"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="7"/>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="7"/>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="7"/>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="7"/>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="7"/>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="7"/>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="7"/>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="7"/>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="7"/>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="7"/>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="7"/>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="7"/>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="7"/>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="7"/>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="7"/>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="7"/>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="7"/>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="7"/>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="7"/>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="7"/>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="7"/>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="7"/>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="7"/>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="7"/>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="7"/>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="7"/>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="7"/>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="7"/>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="7"/>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="7"/>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="7"/>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="7"/>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="7"/>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="A99" s="7"/>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="A100" s="7"/>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="A101" s="7"/>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="A102" s="7"/>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="A103" s="7"/>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="A104" s="7"/>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="A105" s="7"/>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="A106" s="7"/>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="A107" s="7"/>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="A108" s="7"/>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="A109" s="7"/>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110" s="7"/>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="A111" s="7"/>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="A112" s="7"/>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="A113" s="7"/>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="A114" s="7"/>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="A115" s="7"/>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="A116" s="7"/>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="A117" s="7"/>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="A118" s="7"/>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="A119" s="7"/>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="A120" s="7"/>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="A121" s="7"/>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="A122" s="7"/>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="A123" s="7"/>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="A124" s="7"/>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="A125" s="7"/>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="A126" s="7"/>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="A127" s="7"/>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="A128" s="7"/>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="A129" s="7"/>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="A130" s="7"/>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="A131" s="7"/>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="A132" s="7"/>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="A133" s="7"/>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="A134" s="7"/>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="A135" s="7"/>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="A136" s="7"/>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="A137" s="7"/>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="A138" s="7"/>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="A139" s="7"/>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="A140" s="7"/>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="A141" s="7"/>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="A142" s="7"/>
+    </row>
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="A143" s="7"/>
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="A144" s="7"/>
+    </row>
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="A145" s="7"/>
+    </row>
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="A146" s="7"/>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="A147" s="7"/>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="A148" s="7"/>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="A149" s="7"/>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="A150" s="7"/>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="A151" s="7"/>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
+      <c r="A152" s="7"/>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="A153" s="7"/>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="A154" s="7"/>
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="A155" s="7"/>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="A156" s="7"/>
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="A157" s="7"/>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="A158" s="7"/>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="A159" s="7"/>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="A160" s="7"/>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="A161" s="7"/>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="A162" s="7"/>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="A163" s="7"/>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="A164" s="7"/>
+    </row>
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="A165" s="7"/>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="A166" s="7"/>
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
+      <c r="A167" s="7"/>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="A168" s="7"/>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="A169" s="7"/>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="A170" s="7"/>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="A171" s="7"/>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="A172" s="7"/>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="A173" s="7"/>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="A174" s="7"/>
+    </row>
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="A175" s="7"/>
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="A176" s="7"/>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="A177" s="7"/>
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="A178" s="7"/>
+    </row>
+    <row r="179" ht="15.75" customHeight="1">
+      <c r="A179" s="7"/>
+    </row>
+    <row r="180" ht="15.75" customHeight="1">
+      <c r="A180" s="7"/>
+    </row>
+    <row r="181" ht="15.75" customHeight="1">
+      <c r="A181" s="7"/>
+    </row>
+    <row r="182" ht="15.75" customHeight="1">
+      <c r="A182" s="7"/>
+    </row>
+    <row r="183" ht="15.75" customHeight="1">
+      <c r="A183" s="7"/>
+    </row>
+    <row r="184" ht="15.75" customHeight="1">
+      <c r="A184" s="7"/>
+    </row>
+    <row r="185" ht="15.75" customHeight="1">
+      <c r="A185" s="7"/>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
+      <c r="A186" s="7"/>
+    </row>
+    <row r="187" ht="15.75" customHeight="1">
+      <c r="A187" s="7"/>
+    </row>
+    <row r="188" ht="15.75" customHeight="1">
+      <c r="A188" s="7"/>
+    </row>
+    <row r="189" ht="15.75" customHeight="1">
+      <c r="A189" s="7"/>
+    </row>
+    <row r="190" ht="15.75" customHeight="1">
+      <c r="A190" s="7"/>
+    </row>
+    <row r="191" ht="15.75" customHeight="1">
+      <c r="A191" s="7"/>
+    </row>
+    <row r="192" ht="15.75" customHeight="1">
+      <c r="A192" s="7"/>
+    </row>
+    <row r="193" ht="15.75" customHeight="1">
+      <c r="A193" s="7"/>
+    </row>
+    <row r="194" ht="15.75" customHeight="1">
+      <c r="A194" s="7"/>
+    </row>
+    <row r="195" ht="15.75" customHeight="1">
+      <c r="A195" s="7"/>
+    </row>
+    <row r="196" ht="15.75" customHeight="1">
+      <c r="A196" s="7"/>
+    </row>
+    <row r="197" ht="15.75" customHeight="1">
+      <c r="A197" s="7"/>
+    </row>
+    <row r="198" ht="15.75" customHeight="1">
+      <c r="A198" s="7"/>
+    </row>
+    <row r="199" ht="15.75" customHeight="1">
+      <c r="A199" s="7"/>
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
+      <c r="A200" s="7"/>
+    </row>
+    <row r="201" ht="15.75" customHeight="1">
+      <c r="A201" s="7"/>
+    </row>
+    <row r="202" ht="15.75" customHeight="1">
+      <c r="A202" s="7"/>
+    </row>
+    <row r="203" ht="15.75" customHeight="1">
+      <c r="A203" s="7"/>
+    </row>
+    <row r="204" ht="15.75" customHeight="1">
+      <c r="A204" s="7"/>
+    </row>
+    <row r="205" ht="15.75" customHeight="1">
+      <c r="A205" s="7"/>
+    </row>
+    <row r="206" ht="15.75" customHeight="1">
+      <c r="A206" s="7"/>
+    </row>
+    <row r="207" ht="15.75" customHeight="1">
+      <c r="A207" s="7"/>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
+      <c r="A208" s="7"/>
+    </row>
+    <row r="209" ht="15.75" customHeight="1">
+      <c r="A209" s="7"/>
+    </row>
+    <row r="210" ht="15.75" customHeight="1">
+      <c r="A210" s="7"/>
+    </row>
+    <row r="211" ht="15.75" customHeight="1">
+      <c r="A211" s="7"/>
+    </row>
+    <row r="212" ht="15.75" customHeight="1">
+      <c r="A212" s="7"/>
+    </row>
+    <row r="213" ht="15.75" customHeight="1">
+      <c r="A213" s="7"/>
+    </row>
+    <row r="214" ht="15.75" customHeight="1">
+      <c r="A214" s="7"/>
+    </row>
+    <row r="215" ht="15.75" customHeight="1">
+      <c r="A215" s="7"/>
+    </row>
+    <row r="216" ht="15.75" customHeight="1">
+      <c r="A216" s="7"/>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
+      <c r="A217" s="7"/>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="A218" s="7"/>
+    </row>
+    <row r="219" ht="15.75" customHeight="1">
+      <c r="A219" s="7"/>
+    </row>
+    <row r="220" ht="15.75" customHeight="1">
+      <c r="A220" s="7"/>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="A221" s="7"/>
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
+      <c r="A222" s="7"/>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
+      <c r="A223" s="7"/>
+    </row>
+    <row r="224" ht="15.75" customHeight="1">
+      <c r="A224" s="7"/>
+    </row>
+    <row r="225" ht="15.75" customHeight="1">
+      <c r="A225" s="7"/>
+    </row>
+    <row r="226" ht="15.75" customHeight="1">
+      <c r="A226" s="7"/>
+    </row>
+    <row r="227" ht="15.75" customHeight="1">
+      <c r="A227" s="7"/>
+    </row>
+    <row r="228" ht="15.75" customHeight="1">
+      <c r="A228" s="7"/>
+    </row>
+    <row r="229" ht="15.75" customHeight="1">
+      <c r="A229" s="7"/>
+    </row>
+    <row r="230" ht="15.75" customHeight="1">
+      <c r="A230" s="7"/>
+    </row>
+    <row r="231" ht="15.75" customHeight="1">
+      <c r="A231" s="7"/>
+    </row>
+    <row r="232" ht="15.75" customHeight="1">
+      <c r="A232" s="7"/>
+    </row>
+    <row r="233" ht="15.75" customHeight="1">
+      <c r="A233" s="7"/>
+    </row>
+    <row r="234" ht="15.75" customHeight="1">
+      <c r="A234" s="7"/>
+    </row>
+    <row r="235" ht="15.75" customHeight="1">
+      <c r="A235" s="7"/>
+    </row>
+    <row r="236" ht="15.75" customHeight="1">
+      <c r="A236" s="7"/>
+    </row>
+    <row r="237" ht="15.75" customHeight="1">
+      <c r="A237" s="7"/>
+    </row>
+    <row r="238" ht="15.75" customHeight="1">
+      <c r="A238" s="7"/>
+    </row>
+    <row r="239" ht="15.75" customHeight="1">
+      <c r="A239" s="7"/>
+    </row>
+    <row r="240" ht="15.75" customHeight="1">
+      <c r="A240" s="7"/>
+    </row>
+    <row r="241" ht="15.75" customHeight="1">
+      <c r="A241" s="7"/>
+    </row>
+    <row r="242" ht="15.75" customHeight="1">
+      <c r="A242" s="7"/>
+    </row>
+    <row r="243" ht="15.75" customHeight="1">
+      <c r="A243" s="7"/>
+    </row>
+    <row r="244" ht="15.75" customHeight="1">
+      <c r="A244" s="7"/>
+    </row>
+    <row r="245" ht="15.75" customHeight="1">
+      <c r="A245" s="7"/>
+    </row>
+    <row r="246" ht="15.75" customHeight="1">
+      <c r="A246" s="7"/>
+    </row>
+    <row r="247" ht="15.75" customHeight="1">
+      <c r="A247" s="7"/>
+    </row>
+    <row r="248" ht="15.75" customHeight="1">
+      <c r="A248" s="7"/>
+    </row>
+    <row r="249" ht="15.75" customHeight="1">
+      <c r="A249" s="7"/>
+    </row>
+    <row r="250" ht="15.75" customHeight="1">
+      <c r="A250" s="7"/>
+    </row>
+    <row r="251" ht="15.75" customHeight="1">
+      <c r="A251" s="7"/>
+    </row>
+    <row r="252" ht="15.75" customHeight="1">
+      <c r="A252" s="7"/>
+    </row>
+    <row r="253" ht="15.75" customHeight="1">
+      <c r="A253" s="7"/>
+    </row>
+    <row r="254" ht="15.75" customHeight="1">
+      <c r="A254" s="7"/>
+    </row>
+    <row r="255" ht="15.75" customHeight="1">
+      <c r="A255" s="7"/>
+    </row>
+    <row r="256" ht="15.75" customHeight="1">
+      <c r="A256" s="7"/>
+    </row>
+    <row r="257" ht="15.75" customHeight="1">
+      <c r="A257" s="7"/>
+    </row>
+    <row r="258" ht="15.75" customHeight="1">
+      <c r="A258" s="7"/>
+    </row>
+    <row r="259" ht="15.75" customHeight="1">
+      <c r="A259" s="7"/>
+    </row>
+    <row r="260" ht="15.75" customHeight="1">
+      <c r="A260" s="7"/>
+    </row>
+    <row r="261" ht="15.75" customHeight="1">
+      <c r="A261" s="7"/>
+    </row>
+    <row r="262" ht="15.75" customHeight="1">
+      <c r="A262" s="7"/>
+    </row>
+    <row r="263" ht="15.75" customHeight="1">
+      <c r="A263" s="7"/>
+    </row>
+    <row r="264" ht="15.75" customHeight="1">
+      <c r="A264" s="7"/>
+    </row>
+    <row r="265" ht="15.75" customHeight="1">
+      <c r="A265" s="7"/>
+    </row>
+    <row r="266" ht="15.75" customHeight="1">
+      <c r="A266" s="7"/>
+    </row>
+    <row r="267" ht="15.75" customHeight="1">
+      <c r="A267" s="7"/>
+    </row>
+    <row r="268" ht="15.75" customHeight="1">
+      <c r="A268" s="7"/>
+    </row>
+    <row r="269" ht="15.75" customHeight="1">
+      <c r="A269" s="7"/>
+    </row>
+    <row r="270" ht="15.75" customHeight="1">
+      <c r="A270" s="7"/>
+    </row>
+    <row r="271" ht="15.75" customHeight="1">
+      <c r="A271" s="7"/>
+    </row>
+    <row r="272" ht="15.75" customHeight="1">
+      <c r="A272" s="7"/>
+    </row>
+    <row r="273" ht="15.75" customHeight="1">
+      <c r="A273" s="7"/>
+    </row>
+    <row r="274" ht="15.75" customHeight="1">
+      <c r="A274" s="7"/>
+    </row>
+    <row r="275" ht="15.75" customHeight="1">
+      <c r="A275" s="7"/>
+    </row>
+    <row r="276" ht="15.75" customHeight="1">
+      <c r="A276" s="7"/>
+    </row>
+    <row r="277" ht="15.75" customHeight="1">
+      <c r="A277" s="7"/>
+    </row>
+    <row r="278" ht="15.75" customHeight="1">
+      <c r="A278" s="7"/>
+    </row>
+    <row r="279" ht="15.75" customHeight="1">
+      <c r="A279" s="7"/>
+    </row>
+    <row r="280" ht="15.75" customHeight="1">
+      <c r="A280" s="7"/>
+    </row>
+    <row r="281" ht="15.75" customHeight="1">
+      <c r="A281" s="7"/>
+    </row>
+    <row r="282" ht="15.75" customHeight="1">
+      <c r="A282" s="7"/>
+    </row>
+    <row r="283" ht="15.75" customHeight="1">
+      <c r="A283" s="7"/>
+    </row>
+    <row r="284" ht="15.75" customHeight="1">
+      <c r="A284" s="7"/>
+    </row>
+    <row r="285" ht="15.75" customHeight="1">
+      <c r="A285" s="7"/>
+    </row>
+    <row r="286" ht="15.75" customHeight="1">
+      <c r="A286" s="7"/>
+    </row>
+    <row r="287" ht="15.75" customHeight="1">
+      <c r="A287" s="7"/>
+    </row>
+    <row r="288" ht="15.75" customHeight="1">
+      <c r="A288" s="7"/>
+    </row>
+    <row r="289" ht="15.75" customHeight="1">
+      <c r="A289" s="7"/>
+    </row>
+    <row r="290" ht="15.75" customHeight="1">
+      <c r="A290" s="7"/>
+    </row>
+    <row r="291" ht="15.75" customHeight="1">
+      <c r="A291" s="7"/>
+    </row>
+    <row r="292" ht="15.75" customHeight="1">
+      <c r="A292" s="7"/>
+    </row>
+    <row r="293" ht="15.75" customHeight="1">
+      <c r="A293" s="7"/>
+    </row>
+    <row r="294" ht="15.75" customHeight="1">
+      <c r="A294" s="7"/>
+    </row>
+    <row r="295" ht="15.75" customHeight="1">
+      <c r="A295" s="7"/>
+    </row>
+    <row r="296" ht="15.75" customHeight="1">
+      <c r="A296" s="7"/>
+    </row>
+    <row r="297" ht="15.75" customHeight="1">
+      <c r="A297" s="7"/>
+    </row>
+    <row r="298" ht="15.75" customHeight="1">
+      <c r="A298" s="7"/>
+    </row>
+    <row r="299" ht="15.75" customHeight="1">
+      <c r="A299" s="7"/>
+    </row>
+    <row r="300" ht="15.75" customHeight="1">
+      <c r="A300" s="7"/>
+    </row>
+    <row r="301" ht="15.75" customHeight="1">
+      <c r="A301" s="7"/>
+    </row>
+    <row r="302" ht="15.75" customHeight="1">
+      <c r="A302" s="7"/>
+    </row>
+    <row r="303" ht="15.75" customHeight="1">
+      <c r="A303" s="7"/>
+    </row>
+    <row r="304" ht="15.75" customHeight="1">
+      <c r="A304" s="7"/>
+    </row>
+    <row r="305" ht="15.75" customHeight="1">
+      <c r="A305" s="7"/>
+    </row>
+    <row r="306" ht="15.75" customHeight="1">
+      <c r="A306" s="7"/>
+    </row>
+    <row r="307" ht="15.75" customHeight="1">
+      <c r="A307" s="7"/>
+    </row>
+    <row r="308" ht="15.75" customHeight="1">
+      <c r="A308" s="7"/>
+    </row>
+    <row r="309" ht="15.75" customHeight="1">
+      <c r="A309" s="7"/>
+    </row>
+    <row r="310" ht="15.75" customHeight="1">
+      <c r="A310" s="7"/>
+    </row>
+    <row r="311" ht="15.75" customHeight="1">
+      <c r="A311" s="7"/>
+    </row>
+    <row r="312" ht="15.75" customHeight="1">
+      <c r="A312" s="7"/>
+    </row>
+    <row r="313" ht="15.75" customHeight="1">
+      <c r="A313" s="7"/>
+    </row>
+    <row r="314" ht="15.75" customHeight="1">
+      <c r="A314" s="7"/>
+    </row>
+    <row r="315" ht="15.75" customHeight="1">
+      <c r="A315" s="7"/>
+    </row>
+    <row r="316" ht="15.75" customHeight="1">
+      <c r="A316" s="7"/>
+    </row>
+    <row r="317" ht="15.75" customHeight="1">
+      <c r="A317" s="7"/>
+    </row>
+    <row r="318" ht="15.75" customHeight="1">
+      <c r="A318" s="7"/>
+    </row>
+    <row r="319" ht="15.75" customHeight="1">
+      <c r="A319" s="7"/>
+    </row>
+    <row r="320" ht="15.75" customHeight="1">
+      <c r="A320" s="7"/>
+    </row>
+    <row r="321" ht="15.75" customHeight="1">
+      <c r="A321" s="7"/>
+    </row>
+    <row r="322" ht="15.75" customHeight="1">
+      <c r="A322" s="7"/>
+    </row>
+    <row r="323" ht="15.75" customHeight="1">
+      <c r="A323" s="7"/>
+    </row>
+    <row r="324" ht="15.75" customHeight="1">
+      <c r="A324" s="7"/>
+    </row>
+    <row r="325" ht="15.75" customHeight="1">
+      <c r="A325" s="7"/>
+    </row>
+    <row r="326" ht="15.75" customHeight="1">
+      <c r="A326" s="7"/>
+    </row>
+    <row r="327" ht="15.75" customHeight="1">
+      <c r="A327" s="7"/>
+    </row>
+    <row r="328" ht="15.75" customHeight="1">
+      <c r="A328" s="7"/>
+    </row>
+    <row r="329" ht="15.75" customHeight="1">
+      <c r="A329" s="7"/>
+    </row>
+    <row r="330" ht="15.75" customHeight="1">
+      <c r="A330" s="7"/>
+    </row>
+    <row r="331" ht="15.75" customHeight="1">
+      <c r="A331" s="7"/>
+    </row>
+    <row r="332" ht="15.75" customHeight="1">
+      <c r="A332" s="7"/>
+    </row>
+    <row r="333" ht="15.75" customHeight="1">
+      <c r="A333" s="7"/>
+    </row>
+    <row r="334" ht="15.75" customHeight="1">
+      <c r="A334" s="7"/>
+    </row>
+    <row r="335" ht="15.75" customHeight="1">
+      <c r="A335" s="7"/>
+    </row>
+    <row r="336" ht="15.75" customHeight="1">
+      <c r="A336" s="7"/>
+    </row>
+    <row r="337" ht="15.75" customHeight="1">
+      <c r="A337" s="7"/>
+    </row>
+    <row r="338" ht="15.75" customHeight="1">
+      <c r="A338" s="7"/>
+    </row>
+    <row r="339" ht="15.75" customHeight="1">
+      <c r="A339" s="7"/>
+    </row>
+    <row r="340" ht="15.75" customHeight="1">
+      <c r="A340" s="7"/>
+    </row>
+    <row r="341" ht="15.75" customHeight="1">
+      <c r="A341" s="7"/>
+    </row>
+    <row r="342" ht="15.75" customHeight="1">
+      <c r="A342" s="7"/>
+    </row>
+    <row r="343" ht="15.75" customHeight="1">
+      <c r="A343" s="7"/>
+    </row>
+    <row r="344" ht="15.75" customHeight="1">
+      <c r="A344" s="7"/>
+    </row>
+    <row r="345" ht="15.75" customHeight="1">
+      <c r="A345" s="7"/>
+    </row>
+    <row r="346" ht="15.75" customHeight="1">
+      <c r="A346" s="7"/>
+    </row>
+    <row r="347" ht="15.75" customHeight="1">
+      <c r="A347" s="7"/>
+    </row>
+    <row r="348" ht="15.75" customHeight="1">
+      <c r="A348" s="7"/>
+    </row>
+    <row r="349" ht="15.75" customHeight="1">
+      <c r="A349" s="7"/>
+    </row>
+    <row r="350" ht="15.75" customHeight="1">
+      <c r="A350" s="7"/>
+    </row>
+    <row r="351" ht="15.75" customHeight="1">
+      <c r="A351" s="7"/>
+    </row>
+    <row r="352" ht="15.75" customHeight="1">
+      <c r="A352" s="7"/>
+    </row>
+    <row r="353" ht="15.75" customHeight="1">
+      <c r="A353" s="7"/>
+    </row>
+    <row r="354" ht="15.75" customHeight="1">
+      <c r="A354" s="7"/>
+    </row>
+    <row r="355" ht="15.75" customHeight="1">
+      <c r="A355" s="7"/>
+    </row>
+    <row r="356" ht="15.75" customHeight="1">
+      <c r="A356" s="7"/>
+    </row>
+    <row r="357" ht="15.75" customHeight="1">
+      <c r="A357" s="7"/>
+    </row>
+    <row r="358" ht="15.75" customHeight="1">
+      <c r="A358" s="7"/>
+    </row>
+    <row r="359" ht="15.75" customHeight="1">
+      <c r="A359" s="7"/>
+    </row>
+    <row r="360" ht="15.75" customHeight="1">
+      <c r="A360" s="7"/>
+    </row>
+    <row r="361" ht="15.75" customHeight="1">
+      <c r="A361" s="7"/>
+    </row>
+    <row r="362" ht="15.75" customHeight="1">
+      <c r="A362" s="7"/>
+    </row>
+    <row r="363" ht="15.75" customHeight="1">
+      <c r="A363" s="7"/>
+    </row>
+    <row r="364" ht="15.75" customHeight="1">
+      <c r="A364" s="7"/>
+    </row>
+    <row r="365" ht="15.75" customHeight="1">
+      <c r="A365" s="7"/>
+    </row>
+    <row r="366" ht="15.75" customHeight="1">
+      <c r="A366" s="7"/>
+    </row>
+    <row r="367" ht="15.75" customHeight="1">
+      <c r="A367" s="7"/>
+    </row>
+    <row r="368" ht="15.75" customHeight="1">
+      <c r="A368" s="7"/>
+    </row>
+    <row r="369" ht="15.75" customHeight="1">
+      <c r="A369" s="7"/>
+    </row>
+    <row r="370" ht="15.75" customHeight="1">
+      <c r="A370" s="7"/>
+    </row>
+    <row r="371" ht="15.75" customHeight="1">
+      <c r="A371" s="7"/>
+    </row>
+    <row r="372" ht="15.75" customHeight="1">
+      <c r="A372" s="7"/>
+    </row>
+    <row r="373" ht="15.75" customHeight="1">
+      <c r="A373" s="7"/>
+    </row>
+    <row r="374" ht="15.75" customHeight="1">
+      <c r="A374" s="7"/>
+    </row>
+    <row r="375" ht="15.75" customHeight="1">
+      <c r="A375" s="7"/>
+    </row>
+    <row r="376" ht="15.75" customHeight="1">
+      <c r="A376" s="7"/>
+    </row>
+    <row r="377" ht="15.75" customHeight="1">
+      <c r="A377" s="7"/>
+    </row>
+    <row r="378" ht="15.75" customHeight="1">
+      <c r="A378" s="7"/>
+    </row>
+    <row r="379" ht="15.75" customHeight="1">
+      <c r="A379" s="7"/>
+    </row>
+    <row r="380" ht="15.75" customHeight="1">
+      <c r="A380" s="7"/>
+    </row>
+    <row r="381" ht="15.75" customHeight="1">
+      <c r="A381" s="7"/>
+    </row>
+    <row r="382" ht="15.75" customHeight="1">
+      <c r="A382" s="7"/>
+    </row>
+    <row r="383" ht="15.75" customHeight="1">
+      <c r="A383" s="7"/>
+    </row>
+    <row r="384" ht="15.75" customHeight="1">
+      <c r="A384" s="7"/>
+    </row>
+    <row r="385" ht="15.75" customHeight="1">
+      <c r="A385" s="7"/>
+    </row>
+    <row r="386" ht="15.75" customHeight="1">
+      <c r="A386" s="7"/>
+    </row>
+    <row r="387" ht="15.75" customHeight="1">
+      <c r="A387" s="7"/>
+    </row>
+    <row r="388" ht="15.75" customHeight="1">
+      <c r="A388" s="7"/>
+    </row>
+    <row r="389" ht="15.75" customHeight="1">
+      <c r="A389" s="7"/>
+    </row>
+    <row r="390" ht="15.75" customHeight="1">
+      <c r="A390" s="7"/>
+    </row>
+    <row r="391" ht="15.75" customHeight="1">
+      <c r="A391" s="7"/>
+    </row>
+    <row r="392" ht="15.75" customHeight="1">
+      <c r="A392" s="7"/>
+    </row>
+    <row r="393" ht="15.75" customHeight="1">
+      <c r="A393" s="7"/>
+    </row>
+    <row r="394" ht="15.75" customHeight="1">
+      <c r="A394" s="7"/>
+    </row>
+    <row r="395" ht="15.75" customHeight="1">
+      <c r="A395" s="7"/>
+    </row>
+    <row r="396" ht="15.75" customHeight="1">
+      <c r="A396" s="7"/>
+    </row>
+    <row r="397" ht="15.75" customHeight="1">
+      <c r="A397" s="7"/>
+    </row>
+    <row r="398" ht="15.75" customHeight="1">
+      <c r="A398" s="7"/>
+    </row>
+    <row r="399" ht="15.75" customHeight="1">
+      <c r="A399" s="7"/>
+    </row>
+    <row r="400" ht="15.75" customHeight="1">
+      <c r="A400" s="7"/>
+    </row>
+    <row r="401" ht="15.75" customHeight="1">
+      <c r="A401" s="7"/>
+    </row>
+    <row r="402" ht="15.75" customHeight="1">
+      <c r="A402" s="7"/>
+    </row>
+    <row r="403" ht="15.75" customHeight="1">
+      <c r="A403" s="7"/>
+    </row>
+    <row r="404" ht="15.75" customHeight="1">
+      <c r="A404" s="7"/>
+    </row>
+    <row r="405" ht="15.75" customHeight="1">
+      <c r="A405" s="7"/>
+    </row>
+    <row r="406" ht="15.75" customHeight="1">
+      <c r="A406" s="7"/>
+    </row>
+    <row r="407" ht="15.75" customHeight="1">
+      <c r="A407" s="7"/>
+    </row>
+    <row r="408" ht="15.75" customHeight="1">
+      <c r="A408" s="7"/>
+    </row>
+    <row r="409" ht="15.75" customHeight="1">
+      <c r="A409" s="7"/>
+    </row>
+    <row r="410" ht="15.75" customHeight="1">
+      <c r="A410" s="7"/>
+    </row>
+    <row r="411" ht="15.75" customHeight="1">
+      <c r="A411" s="7"/>
+    </row>
+    <row r="412" ht="15.75" customHeight="1">
+      <c r="A412" s="7"/>
+    </row>
+    <row r="413" ht="15.75" customHeight="1">
+      <c r="A413" s="7"/>
+    </row>
+    <row r="414" ht="15.75" customHeight="1">
+      <c r="A414" s="7"/>
+    </row>
+    <row r="415" ht="15.75" customHeight="1">
+      <c r="A415" s="7"/>
+    </row>
+    <row r="416" ht="15.75" customHeight="1">
+      <c r="A416" s="7"/>
+    </row>
+    <row r="417" ht="15.75" customHeight="1">
+      <c r="A417" s="7"/>
+    </row>
+    <row r="418" ht="15.75" customHeight="1">
+      <c r="A418" s="7"/>
+    </row>
+    <row r="419" ht="15.75" customHeight="1">
+      <c r="A419" s="7"/>
+    </row>
+    <row r="420" ht="15.75" customHeight="1">
+      <c r="A420" s="7"/>
+    </row>
+    <row r="421" ht="15.75" customHeight="1">
+      <c r="A421" s="7"/>
+    </row>
+    <row r="422" ht="15.75" customHeight="1">
+      <c r="A422" s="7"/>
+    </row>
+    <row r="423" ht="15.75" customHeight="1">
+      <c r="A423" s="7"/>
+    </row>
+    <row r="424" ht="15.75" customHeight="1">
+      <c r="A424" s="7"/>
+    </row>
+    <row r="425" ht="15.75" customHeight="1">
+      <c r="A425" s="7"/>
+    </row>
+    <row r="426" ht="15.75" customHeight="1">
+      <c r="A426" s="7"/>
+    </row>
+    <row r="427" ht="15.75" customHeight="1">
+      <c r="A427" s="7"/>
+    </row>
+    <row r="428" ht="15.75" customHeight="1">
+      <c r="A428" s="7"/>
+    </row>
+    <row r="429" ht="15.75" customHeight="1">
+      <c r="A429" s="7"/>
+    </row>
+    <row r="430" ht="15.75" customHeight="1">
+      <c r="A430" s="7"/>
+    </row>
+    <row r="431" ht="15.75" customHeight="1">
+      <c r="A431" s="7"/>
+    </row>
+    <row r="432" ht="15.75" customHeight="1">
+      <c r="A432" s="7"/>
+    </row>
+    <row r="433" ht="15.75" customHeight="1">
+      <c r="A433" s="7"/>
+    </row>
+    <row r="434" ht="15.75" customHeight="1">
+      <c r="A434" s="7"/>
+    </row>
+    <row r="435" ht="15.75" customHeight="1">
+      <c r="A435" s="7"/>
+    </row>
+    <row r="436" ht="15.75" customHeight="1">
+      <c r="A436" s="7"/>
+    </row>
+    <row r="437" ht="15.75" customHeight="1">
+      <c r="A437" s="7"/>
+    </row>
+    <row r="438" ht="15.75" customHeight="1">
+      <c r="A438" s="7"/>
+    </row>
+    <row r="439" ht="15.75" customHeight="1">
+      <c r="A439" s="7"/>
+    </row>
+    <row r="440" ht="15.75" customHeight="1">
+      <c r="A440" s="7"/>
+    </row>
+    <row r="441" ht="15.75" customHeight="1">
+      <c r="A441" s="7"/>
+    </row>
+    <row r="442" ht="15.75" customHeight="1">
+      <c r="A442" s="7"/>
+    </row>
+    <row r="443" ht="15.75" customHeight="1">
+      <c r="A443" s="7"/>
+    </row>
+    <row r="444" ht="15.75" customHeight="1">
+      <c r="A444" s="7"/>
+    </row>
+    <row r="445" ht="15.75" customHeight="1">
+      <c r="A445" s="7"/>
+    </row>
+    <row r="446" ht="15.75" customHeight="1">
+      <c r="A446" s="7"/>
+    </row>
+    <row r="447" ht="15.75" customHeight="1">
+      <c r="A447" s="7"/>
+    </row>
+    <row r="448" ht="15.75" customHeight="1">
+      <c r="A448" s="7"/>
+    </row>
+    <row r="449" ht="15.75" customHeight="1">
+      <c r="A449" s="7"/>
+    </row>
+    <row r="450" ht="15.75" customHeight="1">
+      <c r="A450" s="7"/>
+    </row>
+    <row r="451" ht="15.75" customHeight="1">
+      <c r="A451" s="7"/>
+    </row>
+    <row r="452" ht="15.75" customHeight="1">
+      <c r="A452" s="7"/>
+    </row>
+    <row r="453" ht="15.75" customHeight="1">
+      <c r="A453" s="7"/>
+    </row>
+    <row r="454" ht="15.75" customHeight="1">
+      <c r="A454" s="7"/>
+    </row>
+    <row r="455" ht="15.75" customHeight="1">
+      <c r="A455" s="7"/>
+    </row>
+    <row r="456" ht="15.75" customHeight="1">
+      <c r="A456" s="7"/>
+    </row>
+    <row r="457" ht="15.75" customHeight="1">
+      <c r="A457" s="7"/>
+    </row>
+    <row r="458" ht="15.75" customHeight="1">
+      <c r="A458" s="7"/>
+    </row>
+    <row r="459" ht="15.75" customHeight="1">
+      <c r="A459" s="7"/>
+    </row>
+    <row r="460" ht="15.75" customHeight="1">
+      <c r="A460" s="7"/>
+    </row>
+    <row r="461" ht="15.75" customHeight="1">
+      <c r="A461" s="7"/>
+    </row>
+    <row r="462" ht="15.75" customHeight="1">
+      <c r="A462" s="7"/>
+    </row>
+    <row r="463" ht="15.75" customHeight="1">
+      <c r="A463" s="7"/>
+    </row>
+    <row r="464" ht="15.75" customHeight="1">
+      <c r="A464" s="7"/>
+    </row>
+    <row r="465" ht="15.75" customHeight="1">
+      <c r="A465" s="7"/>
+    </row>
+    <row r="466" ht="15.75" customHeight="1">
+      <c r="A466" s="7"/>
+    </row>
+    <row r="467" ht="15.75" customHeight="1">
+      <c r="A467" s="7"/>
+    </row>
+    <row r="468" ht="15.75" customHeight="1">
+      <c r="A468" s="7"/>
+    </row>
+    <row r="469" ht="15.75" customHeight="1">
+      <c r="A469" s="7"/>
+    </row>
+    <row r="470" ht="15.75" customHeight="1">
+      <c r="A470" s="7"/>
+    </row>
+    <row r="471" ht="15.75" customHeight="1">
+      <c r="A471" s="7"/>
+    </row>
+    <row r="472" ht="15.75" customHeight="1">
+      <c r="A472" s="7"/>
+    </row>
+    <row r="473" ht="15.75" customHeight="1">
+      <c r="A473" s="7"/>
+    </row>
+    <row r="474" ht="15.75" customHeight="1">
+      <c r="A474" s="7"/>
+    </row>
+    <row r="475" ht="15.75" customHeight="1">
+      <c r="A475" s="7"/>
+    </row>
+    <row r="476" ht="15.75" customHeight="1">
+      <c r="A476" s="7"/>
+    </row>
+    <row r="477" ht="15.75" customHeight="1">
+      <c r="A477" s="7"/>
+    </row>
+    <row r="478" ht="15.75" customHeight="1">
+      <c r="A478" s="7"/>
+    </row>
+    <row r="479" ht="15.75" customHeight="1">
+      <c r="A479" s="7"/>
+    </row>
+    <row r="480" ht="15.75" customHeight="1">
+      <c r="A480" s="7"/>
+    </row>
+    <row r="481" ht="15.75" customHeight="1">
+      <c r="A481" s="7"/>
+    </row>
+    <row r="482" ht="15.75" customHeight="1">
+      <c r="A482" s="7"/>
+    </row>
+    <row r="483" ht="15.75" customHeight="1">
+      <c r="A483" s="7"/>
+    </row>
+    <row r="484" ht="15.75" customHeight="1">
+      <c r="A484" s="7"/>
+    </row>
+    <row r="485" ht="15.75" customHeight="1">
+      <c r="A485" s="7"/>
+    </row>
+    <row r="486" ht="15.75" customHeight="1">
+      <c r="A486" s="7"/>
+    </row>
+    <row r="487" ht="15.75" customHeight="1">
+      <c r="A487" s="7"/>
+    </row>
+    <row r="488" ht="15.75" customHeight="1">
+      <c r="A488" s="7"/>
+    </row>
+    <row r="489" ht="15.75" customHeight="1">
+      <c r="A489" s="7"/>
+    </row>
+    <row r="490" ht="15.75" customHeight="1">
+      <c r="A490" s="7"/>
+    </row>
+    <row r="491" ht="15.75" customHeight="1">
+      <c r="A491" s="7"/>
+    </row>
+    <row r="492" ht="15.75" customHeight="1">
+      <c r="A492" s="7"/>
+    </row>
+    <row r="493" ht="15.75" customHeight="1">
+      <c r="A493" s="7"/>
+    </row>
+    <row r="494" ht="15.75" customHeight="1">
+      <c r="A494" s="7"/>
+    </row>
+    <row r="495" ht="15.75" customHeight="1">
+      <c r="A495" s="7"/>
+    </row>
+    <row r="496" ht="15.75" customHeight="1">
+      <c r="A496" s="7"/>
+    </row>
+    <row r="497" ht="15.75" customHeight="1">
+      <c r="A497" s="7"/>
+    </row>
+    <row r="498" ht="15.75" customHeight="1">
+      <c r="A498" s="7"/>
+    </row>
+    <row r="499" ht="15.75" customHeight="1">
+      <c r="A499" s="7"/>
+    </row>
+    <row r="500" ht="15.75" customHeight="1">
+      <c r="A500" s="7"/>
+    </row>
+    <row r="501" ht="15.75" customHeight="1">
+      <c r="A501" s="7"/>
+    </row>
+    <row r="502" ht="15.75" customHeight="1">
+      <c r="A502" s="7"/>
+    </row>
+    <row r="503" ht="15.75" customHeight="1">
+      <c r="A503" s="7"/>
+    </row>
+    <row r="504" ht="15.75" customHeight="1">
+      <c r="A504" s="7"/>
+    </row>
+    <row r="505" ht="15.75" customHeight="1">
+      <c r="A505" s="7"/>
+    </row>
+    <row r="506" ht="15.75" customHeight="1">
+      <c r="A506" s="7"/>
+    </row>
+    <row r="507" ht="15.75" customHeight="1">
+      <c r="A507" s="7"/>
+    </row>
+    <row r="508" ht="15.75" customHeight="1">
+      <c r="A508" s="7"/>
+    </row>
+    <row r="509" ht="15.75" customHeight="1">
+      <c r="A509" s="7"/>
+    </row>
+    <row r="510" ht="15.75" customHeight="1">
+      <c r="A510" s="7"/>
+    </row>
+    <row r="511" ht="15.75" customHeight="1">
+      <c r="A511" s="7"/>
+    </row>
+    <row r="512" ht="15.75" customHeight="1">
+      <c r="A512" s="7"/>
+    </row>
+    <row r="513" ht="15.75" customHeight="1">
+      <c r="A513" s="7"/>
+    </row>
+    <row r="514" ht="15.75" customHeight="1">
+      <c r="A514" s="7"/>
+    </row>
+    <row r="515" ht="15.75" customHeight="1">
+      <c r="A515" s="7"/>
+    </row>
+    <row r="516" ht="15.75" customHeight="1">
+      <c r="A516" s="7"/>
+    </row>
+    <row r="517" ht="15.75" customHeight="1">
+      <c r="A517" s="7"/>
+    </row>
+    <row r="518" ht="15.75" customHeight="1">
+      <c r="A518" s="7"/>
+    </row>
+    <row r="519" ht="15.75" customHeight="1">
+      <c r="A519" s="7"/>
+    </row>
+    <row r="520" ht="15.75" customHeight="1">
+      <c r="A520" s="7"/>
+    </row>
+    <row r="521" ht="15.75" customHeight="1">
+      <c r="A521" s="7"/>
+    </row>
+    <row r="522" ht="15.75" customHeight="1">
+      <c r="A522" s="7"/>
+    </row>
+    <row r="523" ht="15.75" customHeight="1">
+      <c r="A523" s="7"/>
+    </row>
+    <row r="524" ht="15.75" customHeight="1">
+      <c r="A524" s="7"/>
+    </row>
+    <row r="525" ht="15.75" customHeight="1">
+      <c r="A525" s="7"/>
+    </row>
+    <row r="526" ht="15.75" customHeight="1">
+      <c r="A526" s="7"/>
+    </row>
+    <row r="527" ht="15.75" customHeight="1">
+      <c r="A527" s="7"/>
+    </row>
+    <row r="528" ht="15.75" customHeight="1">
+      <c r="A528" s="7"/>
+    </row>
+    <row r="529" ht="15.75" customHeight="1">
+      <c r="A529" s="7"/>
+    </row>
+    <row r="530" ht="15.75" customHeight="1">
+      <c r="A530" s="7"/>
+    </row>
+    <row r="531" ht="15.75" customHeight="1">
+      <c r="A531" s="7"/>
+    </row>
+    <row r="532" ht="15.75" customHeight="1">
+      <c r="A532" s="7"/>
+    </row>
+    <row r="533" ht="15.75" customHeight="1">
+      <c r="A533" s="7"/>
+    </row>
+    <row r="534" ht="15.75" customHeight="1">
+      <c r="A534" s="7"/>
+    </row>
+    <row r="535" ht="15.75" customHeight="1">
+      <c r="A535" s="7"/>
+    </row>
+    <row r="536" ht="15.75" customHeight="1">
+      <c r="A536" s="7"/>
+    </row>
+    <row r="537" ht="15.75" customHeight="1">
+      <c r="A537" s="7"/>
+    </row>
+    <row r="538" ht="15.75" customHeight="1">
+      <c r="A538" s="7"/>
+    </row>
+    <row r="539" ht="15.75" customHeight="1">
+      <c r="A539" s="7"/>
+    </row>
+    <row r="540" ht="15.75" customHeight="1">
+      <c r="A540" s="7"/>
+    </row>
+    <row r="541" ht="15.75" customHeight="1">
+      <c r="A541" s="7"/>
+    </row>
+    <row r="542" ht="15.75" customHeight="1">
+      <c r="A542" s="7"/>
+    </row>
+    <row r="543" ht="15.75" customHeight="1">
+      <c r="A543" s="7"/>
+    </row>
+    <row r="544" ht="15.75" customHeight="1">
+      <c r="A544" s="7"/>
+    </row>
+    <row r="545" ht="15.75" customHeight="1">
+      <c r="A545" s="7"/>
+    </row>
+    <row r="546" ht="15.75" customHeight="1">
+      <c r="A546" s="7"/>
+    </row>
+    <row r="547" ht="15.75" customHeight="1">
+      <c r="A547" s="7"/>
+    </row>
+    <row r="548" ht="15.75" customHeight="1">
+      <c r="A548" s="7"/>
+    </row>
+    <row r="549" ht="15.75" customHeight="1">
+      <c r="A549" s="7"/>
+    </row>
+    <row r="550" ht="15.75" customHeight="1">
+      <c r="A550" s="7"/>
+    </row>
+    <row r="551" ht="15.75" customHeight="1">
+      <c r="A551" s="7"/>
+    </row>
+    <row r="552" ht="15.75" customHeight="1">
+      <c r="A552" s="7"/>
+    </row>
+    <row r="553" ht="15.75" customHeight="1">
+      <c r="A553" s="7"/>
+    </row>
+    <row r="554" ht="15.75" customHeight="1">
+      <c r="A554" s="7"/>
+    </row>
+    <row r="555" ht="15.75" customHeight="1">
+      <c r="A555" s="7"/>
+    </row>
+    <row r="556" ht="15.75" customHeight="1">
+      <c r="A556" s="7"/>
+    </row>
+    <row r="557" ht="15.75" customHeight="1">
+      <c r="A557" s="7"/>
+    </row>
+    <row r="558" ht="15.75" customHeight="1">
+      <c r="A558" s="7"/>
+    </row>
+    <row r="559" ht="15.75" customHeight="1">
+      <c r="A559" s="7"/>
+    </row>
+    <row r="560" ht="15.75" customHeight="1">
+      <c r="A560" s="7"/>
+    </row>
+    <row r="561" ht="15.75" customHeight="1">
+      <c r="A561" s="7"/>
+    </row>
+    <row r="562" ht="15.75" customHeight="1">
+      <c r="A562" s="7"/>
+    </row>
+    <row r="563" ht="15.75" customHeight="1">
+      <c r="A563" s="7"/>
+    </row>
+    <row r="564" ht="15.75" customHeight="1">
+      <c r="A564" s="7"/>
+    </row>
+    <row r="565" ht="15.75" customHeight="1">
+      <c r="A565" s="7"/>
+    </row>
+    <row r="566" ht="15.75" customHeight="1">
+      <c r="A566" s="7"/>
+    </row>
+    <row r="567" ht="15.75" customHeight="1">
+      <c r="A567" s="7"/>
+    </row>
+    <row r="568" ht="15.75" customHeight="1">
+      <c r="A568" s="7"/>
+    </row>
+    <row r="569" ht="15.75" customHeight="1">
+      <c r="A569" s="7"/>
+    </row>
+    <row r="570" ht="15.75" customHeight="1">
+      <c r="A570" s="7"/>
+    </row>
+    <row r="571" ht="15.75" customHeight="1">
+      <c r="A571" s="7"/>
+    </row>
+    <row r="572" ht="15.75" customHeight="1">
+      <c r="A572" s="7"/>
+    </row>
+    <row r="573" ht="15.75" customHeight="1">
+      <c r="A573" s="7"/>
+    </row>
+    <row r="574" ht="15.75" customHeight="1">
+      <c r="A574" s="7"/>
+    </row>
+    <row r="575" ht="15.75" customHeight="1">
+      <c r="A575" s="7"/>
+    </row>
+    <row r="576" ht="15.75" customHeight="1">
+      <c r="A576" s="7"/>
+    </row>
+    <row r="577" ht="15.75" customHeight="1">
+      <c r="A577" s="7"/>
+    </row>
+    <row r="578" ht="15.75" customHeight="1">
+      <c r="A578" s="7"/>
+    </row>
+    <row r="579" ht="15.75" customHeight="1">
+      <c r="A579" s="7"/>
+    </row>
+    <row r="580" ht="15.75" customHeight="1">
+      <c r="A580" s="7"/>
+    </row>
+    <row r="581" ht="15.75" customHeight="1">
+      <c r="A581" s="7"/>
+    </row>
+    <row r="582" ht="15.75" customHeight="1">
+      <c r="A582" s="7"/>
+    </row>
+    <row r="583" ht="15.75" customHeight="1">
+      <c r="A583" s="7"/>
+    </row>
+    <row r="584" ht="15.75" customHeight="1">
+      <c r="A584" s="7"/>
+    </row>
+    <row r="585" ht="15.75" customHeight="1">
+      <c r="A585" s="7"/>
+    </row>
+    <row r="586" ht="15.75" customHeight="1">
+      <c r="A586" s="7"/>
+    </row>
+    <row r="587" ht="15.75" customHeight="1">
+      <c r="A587" s="7"/>
+    </row>
+    <row r="588" ht="15.75" customHeight="1">
+      <c r="A588" s="7"/>
+    </row>
+    <row r="589" ht="15.75" customHeight="1">
+      <c r="A589" s="7"/>
+    </row>
+    <row r="590" ht="15.75" customHeight="1">
+      <c r="A590" s="7"/>
+    </row>
+    <row r="591" ht="15.75" customHeight="1">
+      <c r="A591" s="7"/>
+    </row>
+    <row r="592" ht="15.75" customHeight="1">
+      <c r="A592" s="7"/>
+    </row>
+    <row r="593" ht="15.75" customHeight="1">
+      <c r="A593" s="7"/>
+    </row>
+    <row r="594" ht="15.75" customHeight="1">
+      <c r="A594" s="7"/>
+    </row>
+    <row r="595" ht="15.75" customHeight="1">
+      <c r="A595" s="7"/>
+    </row>
+    <row r="596" ht="15.75" customHeight="1">
+      <c r="A596" s="7"/>
+    </row>
+    <row r="597" ht="15.75" customHeight="1">
+      <c r="A597" s="7"/>
+    </row>
+    <row r="598" ht="15.75" customHeight="1">
+      <c r="A598" s="7"/>
+    </row>
+    <row r="599" ht="15.75" customHeight="1">
+      <c r="A599" s="7"/>
+    </row>
+    <row r="600" ht="15.75" customHeight="1">
+      <c r="A600" s="7"/>
+    </row>
+    <row r="601" ht="15.75" customHeight="1">
+      <c r="A601" s="7"/>
+    </row>
+    <row r="602" ht="15.75" customHeight="1">
+      <c r="A602" s="7"/>
+    </row>
+    <row r="603" ht="15.75" customHeight="1">
+      <c r="A603" s="7"/>
+    </row>
+    <row r="604" ht="15.75" customHeight="1">
+      <c r="A604" s="7"/>
+    </row>
+    <row r="605" ht="15.75" customHeight="1">
+      <c r="A605" s="7"/>
+    </row>
+    <row r="606" ht="15.75" customHeight="1">
+      <c r="A606" s="7"/>
+    </row>
+    <row r="607" ht="15.75" customHeight="1">
+      <c r="A607" s="7"/>
+    </row>
+    <row r="608" ht="15.75" customHeight="1">
+      <c r="A608" s="7"/>
+    </row>
+    <row r="609" ht="15.75" customHeight="1">
+      <c r="A609" s="7"/>
+    </row>
+    <row r="610" ht="15.75" customHeight="1">
+      <c r="A610" s="7"/>
+    </row>
+    <row r="611" ht="15.75" customHeight="1">
+      <c r="A611" s="7"/>
+    </row>
+    <row r="612" ht="15.75" customHeight="1">
+      <c r="A612" s="7"/>
+    </row>
+    <row r="613" ht="15.75" customHeight="1">
+      <c r="A613" s="7"/>
+    </row>
+    <row r="614" ht="15.75" customHeight="1">
+      <c r="A614" s="7"/>
+    </row>
+    <row r="615" ht="15.75" customHeight="1">
+      <c r="A615" s="7"/>
+    </row>
+    <row r="616" ht="15.75" customHeight="1">
+      <c r="A616" s="7"/>
+    </row>
+    <row r="617" ht="15.75" customHeight="1">
+      <c r="A617" s="7"/>
+    </row>
+    <row r="618" ht="15.75" customHeight="1">
+      <c r="A618" s="7"/>
+    </row>
+    <row r="619" ht="15.75" customHeight="1">
+      <c r="A619" s="7"/>
+    </row>
+    <row r="620" ht="15.75" customHeight="1">
+      <c r="A620" s="7"/>
+    </row>
+    <row r="621" ht="15.75" customHeight="1">
+      <c r="A621" s="7"/>
+    </row>
+    <row r="622" ht="15.75" customHeight="1">
+      <c r="A622" s="7"/>
+    </row>
+    <row r="623" ht="15.75" customHeight="1">
+      <c r="A623" s="7"/>
+    </row>
+    <row r="624" ht="15.75" customHeight="1">
+      <c r="A624" s="7"/>
+    </row>
+    <row r="625" ht="15.75" customHeight="1">
+      <c r="A625" s="7"/>
+    </row>
+    <row r="626" ht="15.75" customHeight="1">
+      <c r="A626" s="7"/>
+    </row>
+    <row r="627" ht="15.75" customHeight="1">
+      <c r="A627" s="7"/>
+    </row>
+    <row r="628" ht="15.75" customHeight="1">
+      <c r="A628" s="7"/>
+    </row>
+    <row r="629" ht="15.75" customHeight="1">
+      <c r="A629" s="7"/>
+    </row>
+    <row r="630" ht="15.75" customHeight="1">
+      <c r="A630" s="7"/>
+    </row>
+    <row r="631" ht="15.75" customHeight="1">
+      <c r="A631" s="7"/>
+    </row>
+    <row r="632" ht="15.75" customHeight="1">
+      <c r="A632" s="7"/>
+    </row>
+    <row r="633" ht="15.75" customHeight="1">
+      <c r="A633" s="7"/>
+    </row>
+    <row r="634" ht="15.75" customHeight="1">
+      <c r="A634" s="7"/>
+    </row>
+    <row r="635" ht="15.75" customHeight="1">
+      <c r="A635" s="7"/>
+    </row>
+    <row r="636" ht="15.75" customHeight="1">
+      <c r="A636" s="7"/>
+    </row>
+    <row r="637" ht="15.75" customHeight="1">
+      <c r="A637" s="7"/>
+    </row>
+    <row r="638" ht="15.75" customHeight="1">
+      <c r="A638" s="7"/>
+    </row>
+    <row r="639" ht="15.75" customHeight="1">
+      <c r="A639" s="7"/>
+    </row>
+    <row r="640" ht="15.75" customHeight="1">
+      <c r="A640" s="7"/>
+    </row>
+    <row r="641" ht="15.75" customHeight="1">
+      <c r="A641" s="7"/>
+    </row>
+    <row r="642" ht="15.75" customHeight="1">
+      <c r="A642" s="7"/>
+    </row>
+    <row r="643" ht="15.75" customHeight="1">
+      <c r="A643" s="7"/>
+    </row>
+    <row r="644" ht="15.75" customHeight="1">
+      <c r="A644" s="7"/>
+    </row>
+    <row r="645" ht="15.75" customHeight="1">
+      <c r="A645" s="7"/>
+    </row>
+    <row r="646" ht="15.75" customHeight="1">
+      <c r="A646" s="7"/>
+    </row>
+    <row r="647" ht="15.75" customHeight="1">
+      <c r="A647" s="7"/>
+    </row>
+    <row r="648" ht="15.75" customHeight="1">
+      <c r="A648" s="7"/>
+    </row>
+    <row r="649" ht="15.75" customHeight="1">
+      <c r="A649" s="7"/>
+    </row>
+    <row r="650" ht="15.75" customHeight="1">
+      <c r="A650" s="7"/>
+    </row>
+    <row r="651" ht="15.75" customHeight="1">
+      <c r="A651" s="7"/>
+    </row>
+    <row r="652" ht="15.75" customHeight="1">
+      <c r="A652" s="7"/>
+    </row>
+    <row r="653" ht="15.75" customHeight="1">
+      <c r="A653" s="7"/>
+    </row>
+    <row r="654" ht="15.75" customHeight="1">
+      <c r="A654" s="7"/>
+    </row>
+    <row r="655" ht="15.75" customHeight="1">
+      <c r="A655" s="7"/>
+    </row>
+    <row r="656" ht="15.75" customHeight="1">
+      <c r="A656" s="7"/>
+    </row>
+    <row r="657" ht="15.75" customHeight="1">
+      <c r="A657" s="7"/>
+    </row>
+    <row r="658" ht="15.75" customHeight="1">
+      <c r="A658" s="7"/>
+    </row>
+    <row r="659" ht="15.75" customHeight="1">
+      <c r="A659" s="7"/>
+    </row>
+    <row r="660" ht="15.75" customHeight="1">
+      <c r="A660" s="7"/>
+    </row>
+    <row r="661" ht="15.75" customHeight="1">
+      <c r="A661" s="7"/>
+    </row>
+    <row r="662" ht="15.75" customHeight="1">
+      <c r="A662" s="7"/>
+    </row>
+    <row r="663" ht="15.75" customHeight="1">
+      <c r="A663" s="7"/>
+    </row>
+    <row r="664" ht="15.75" customHeight="1">
+      <c r="A664" s="7"/>
+    </row>
+    <row r="665" ht="15.75" customHeight="1">
+      <c r="A665" s="7"/>
+    </row>
+    <row r="666" ht="15.75" customHeight="1">
+      <c r="A666" s="7"/>
+    </row>
+    <row r="667" ht="15.75" customHeight="1">
+      <c r="A667" s="7"/>
+    </row>
+    <row r="668" ht="15.75" customHeight="1">
+      <c r="A668" s="7"/>
+    </row>
+    <row r="669" ht="15.75" customHeight="1">
+      <c r="A669" s="7"/>
+    </row>
+    <row r="670" ht="15.75" customHeight="1">
+      <c r="A670" s="7"/>
+    </row>
+    <row r="671" ht="15.75" customHeight="1">
+      <c r="A671" s="7"/>
+    </row>
+    <row r="672" ht="15.75" customHeight="1">
+      <c r="A672" s="7"/>
+    </row>
+    <row r="673" ht="15.75" customHeight="1">
+      <c r="A673" s="7"/>
+    </row>
+    <row r="674" ht="15.75" customHeight="1">
+      <c r="A674" s="7"/>
+    </row>
+    <row r="675" ht="15.75" customHeight="1">
+      <c r="A675" s="7"/>
+    </row>
+    <row r="676" ht="15.75" customHeight="1">
+      <c r="A676" s="7"/>
+    </row>
+    <row r="677" ht="15.75" customHeight="1">
+      <c r="A677" s="7"/>
+    </row>
+    <row r="678" ht="15.75" customHeight="1">
+      <c r="A678" s="7"/>
+    </row>
+    <row r="679" ht="15.75" customHeight="1">
+      <c r="A679" s="7"/>
+    </row>
+    <row r="680" ht="15.75" customHeight="1">
+      <c r="A680" s="7"/>
+    </row>
+    <row r="681" ht="15.75" customHeight="1">
+      <c r="A681" s="7"/>
+    </row>
+    <row r="682" ht="15.75" customHeight="1">
+      <c r="A682" s="7"/>
+    </row>
+    <row r="683" ht="15.75" customHeight="1">
+      <c r="A683" s="7"/>
+    </row>
+    <row r="684" ht="15.75" customHeight="1">
+      <c r="A684" s="7"/>
+    </row>
+    <row r="685" ht="15.75" customHeight="1">
+      <c r="A685" s="7"/>
+    </row>
+    <row r="686" ht="15.75" customHeight="1">
+      <c r="A686" s="7"/>
+    </row>
+    <row r="687" ht="15.75" customHeight="1">
+      <c r="A687" s="7"/>
+    </row>
+    <row r="688" ht="15.75" customHeight="1">
+      <c r="A688" s="7"/>
+    </row>
+    <row r="689" ht="15.75" customHeight="1">
+      <c r="A689" s="7"/>
+    </row>
+    <row r="690" ht="15.75" customHeight="1">
+      <c r="A690" s="7"/>
+    </row>
+    <row r="691" ht="15.75" customHeight="1">
+      <c r="A691" s="7"/>
+    </row>
+    <row r="692" ht="15.75" customHeight="1">
+      <c r="A692" s="7"/>
+    </row>
+    <row r="693" ht="15.75" customHeight="1">
+      <c r="A693" s="7"/>
+    </row>
+    <row r="694" ht="15.75" customHeight="1">
+      <c r="A694" s="7"/>
+    </row>
+    <row r="695" ht="15.75" customHeight="1">
+      <c r="A695" s="7"/>
+    </row>
+    <row r="696" ht="15.75" customHeight="1">
+      <c r="A696" s="7"/>
+    </row>
+    <row r="697" ht="15.75" customHeight="1">
+      <c r="A697" s="7"/>
+    </row>
+    <row r="698" ht="15.75" customHeight="1">
+      <c r="A698" s="7"/>
+    </row>
+    <row r="699" ht="15.75" customHeight="1">
+      <c r="A699" s="7"/>
+    </row>
+    <row r="700" ht="15.75" customHeight="1">
+      <c r="A700" s="7"/>
+    </row>
+    <row r="701" ht="15.75" customHeight="1">
+      <c r="A701" s="7"/>
+    </row>
+    <row r="702" ht="15.75" customHeight="1">
+      <c r="A702" s="7"/>
+    </row>
+    <row r="703" ht="15.75" customHeight="1">
+      <c r="A703" s="7"/>
+    </row>
+    <row r="704" ht="15.75" customHeight="1">
+      <c r="A704" s="7"/>
+    </row>
+    <row r="705" ht="15.75" customHeight="1">
+      <c r="A705" s="7"/>
+    </row>
+    <row r="706" ht="15.75" customHeight="1">
+      <c r="A706" s="7"/>
+    </row>
+    <row r="707" ht="15.75" customHeight="1">
+      <c r="A707" s="7"/>
+    </row>
+    <row r="708" ht="15.75" customHeight="1">
+      <c r="A708" s="7"/>
+    </row>
+    <row r="709" ht="15.75" customHeight="1">
+      <c r="A709" s="7"/>
+    </row>
+    <row r="710" ht="15.75" customHeight="1">
+      <c r="A710" s="7"/>
+    </row>
+    <row r="711" ht="15.75" customHeight="1">
+      <c r="A711" s="7"/>
+    </row>
+    <row r="712" ht="15.75" customHeight="1">
+      <c r="A712" s="7"/>
+    </row>
+    <row r="713" ht="15.75" customHeight="1">
+      <c r="A713" s="7"/>
+    </row>
+    <row r="714" ht="15.75" customHeight="1">
+      <c r="A714" s="7"/>
+    </row>
+    <row r="715" ht="15.75" customHeight="1">
+      <c r="A715" s="7"/>
+    </row>
+    <row r="716" ht="15.75" customHeight="1">
+      <c r="A716" s="7"/>
+    </row>
+    <row r="717" ht="15.75" customHeight="1">
+      <c r="A717" s="7"/>
+    </row>
+    <row r="718" ht="15.75" customHeight="1">
+      <c r="A718" s="7"/>
+    </row>
+    <row r="719" ht="15.75" customHeight="1">
+      <c r="A719" s="7"/>
+    </row>
+    <row r="720" ht="15.75" customHeight="1">
+      <c r="A720" s="7"/>
+    </row>
+    <row r="721" ht="15.75" customHeight="1">
+      <c r="A721" s="7"/>
+    </row>
+    <row r="722" ht="15.75" customHeight="1">
+      <c r="A722" s="7"/>
+    </row>
+    <row r="723" ht="15.75" customHeight="1">
+      <c r="A723" s="7"/>
+    </row>
+    <row r="724" ht="15.75" customHeight="1">
+      <c r="A724" s="7"/>
+    </row>
+    <row r="725" ht="15.75" customHeight="1">
+      <c r="A725" s="7"/>
+    </row>
+    <row r="726" ht="15.75" customHeight="1">
+      <c r="A726" s="7"/>
+    </row>
+    <row r="727" ht="15.75" customHeight="1">
+      <c r="A727" s="7"/>
+    </row>
+    <row r="728" ht="15.75" customHeight="1">
+      <c r="A728" s="7"/>
+    </row>
+    <row r="729" ht="15.75" customHeight="1">
+      <c r="A729" s="7"/>
+    </row>
+    <row r="730" ht="15.75" customHeight="1">
+      <c r="A730" s="7"/>
+    </row>
+    <row r="731" ht="15.75" customHeight="1">
+      <c r="A731" s="7"/>
+    </row>
+    <row r="732" ht="15.75" customHeight="1">
+      <c r="A732" s="7"/>
+    </row>
+    <row r="733" ht="15.75" customHeight="1">
+      <c r="A733" s="7"/>
+    </row>
+    <row r="734" ht="15.75" customHeight="1">
+      <c r="A734" s="7"/>
+    </row>
+    <row r="735" ht="15.75" customHeight="1">
+      <c r="A735" s="7"/>
+    </row>
+    <row r="736" ht="15.75" customHeight="1">
+      <c r="A736" s="7"/>
+    </row>
+    <row r="737" ht="15.75" customHeight="1">
+      <c r="A737" s="7"/>
+    </row>
+    <row r="738" ht="15.75" customHeight="1">
+      <c r="A738" s="7"/>
+    </row>
+    <row r="739" ht="15.75" customHeight="1">
+      <c r="A739" s="7"/>
+    </row>
+    <row r="740" ht="15.75" customHeight="1">
+      <c r="A740" s="7"/>
+    </row>
+    <row r="741" ht="15.75" customHeight="1">
+      <c r="A741" s="7"/>
+    </row>
+    <row r="742" ht="15.75" customHeight="1">
+      <c r="A742" s="7"/>
+    </row>
+    <row r="743" ht="15.75" customHeight="1">
+      <c r="A743" s="7"/>
+    </row>
+    <row r="744" ht="15.75" customHeight="1">
+      <c r="A744" s="7"/>
+    </row>
+    <row r="745" ht="15.75" customHeight="1">
+      <c r="A745" s="7"/>
+    </row>
+    <row r="746" ht="15.75" customHeight="1">
+      <c r="A746" s="7"/>
+    </row>
+    <row r="747" ht="15.75" customHeight="1">
+      <c r="A747" s="7"/>
+    </row>
+    <row r="748" ht="15.75" customHeight="1">
+      <c r="A748" s="7"/>
+    </row>
+    <row r="749" ht="15.75" customHeight="1">
+      <c r="A749" s="7"/>
+    </row>
+    <row r="750" ht="15.75" customHeight="1">
+      <c r="A750" s="7"/>
+    </row>
+    <row r="751" ht="15.75" customHeight="1">
+      <c r="A751" s="7"/>
+    </row>
+    <row r="752" ht="15.75" customHeight="1">
+      <c r="A752" s="7"/>
+    </row>
+    <row r="753" ht="15.75" customHeight="1">
+      <c r="A753" s="7"/>
+    </row>
+    <row r="754" ht="15.75" customHeight="1">
+      <c r="A754" s="7"/>
+    </row>
+    <row r="755" ht="15.75" customHeight="1">
+      <c r="A755" s="7"/>
+    </row>
+    <row r="756" ht="15.75" customHeight="1">
+      <c r="A756" s="7"/>
+    </row>
+    <row r="757" ht="15.75" customHeight="1">
+      <c r="A757" s="7"/>
+    </row>
+    <row r="758" ht="15.75" customHeight="1">
+      <c r="A758" s="7"/>
+    </row>
+    <row r="759" ht="15.75" customHeight="1">
+      <c r="A759" s="7"/>
+    </row>
+    <row r="760" ht="15.75" customHeight="1">
+      <c r="A760" s="7"/>
+    </row>
+    <row r="761" ht="15.75" customHeight="1">
+      <c r="A761" s="7"/>
+    </row>
+    <row r="762" ht="15.75" customHeight="1">
+      <c r="A762" s="7"/>
+    </row>
+    <row r="763" ht="15.75" customHeight="1">
+      <c r="A763" s="7"/>
+    </row>
+    <row r="764" ht="15.75" customHeight="1">
+      <c r="A764" s="7"/>
+    </row>
+    <row r="765" ht="15.75" customHeight="1">
+      <c r="A765" s="7"/>
+    </row>
+    <row r="766" ht="15.75" customHeight="1">
+      <c r="A766" s="7"/>
+    </row>
+    <row r="767" ht="15.75" customHeight="1">
+      <c r="A767" s="7"/>
+    </row>
+    <row r="768" ht="15.75" customHeight="1">
+      <c r="A768" s="7"/>
+    </row>
+    <row r="769" ht="15.75" customHeight="1">
+      <c r="A769" s="7"/>
+    </row>
+    <row r="770" ht="15.75" customHeight="1">
+      <c r="A770" s="7"/>
+    </row>
+    <row r="771" ht="15.75" customHeight="1">
+      <c r="A771" s="7"/>
+    </row>
+    <row r="772" ht="15.75" customHeight="1">
+      <c r="A772" s="7"/>
+    </row>
+    <row r="773" ht="15.75" customHeight="1">
+      <c r="A773" s="7"/>
+    </row>
+    <row r="774" ht="15.75" customHeight="1">
+      <c r="A774" s="7"/>
+    </row>
+    <row r="775" ht="15.75" customHeight="1">
+      <c r="A775" s="7"/>
+    </row>
+    <row r="776" ht="15.75" customHeight="1">
+      <c r="A776" s="7"/>
+    </row>
+    <row r="777" ht="15.75" customHeight="1">
+      <c r="A777" s="7"/>
+    </row>
+    <row r="778" ht="15.75" customHeight="1">
+      <c r="A778" s="7"/>
+    </row>
+    <row r="779" ht="15.75" customHeight="1">
+      <c r="A779" s="7"/>
+    </row>
+    <row r="780" ht="15.75" customHeight="1">
+      <c r="A780" s="7"/>
+    </row>
+    <row r="781" ht="15.75" customHeight="1">
+      <c r="A781" s="7"/>
+    </row>
+    <row r="782" ht="15.75" customHeight="1">
+      <c r="A782" s="7"/>
+    </row>
+    <row r="783" ht="15.75" customHeight="1">
+      <c r="A783" s="7"/>
+    </row>
+    <row r="784" ht="15.75" customHeight="1">
+      <c r="A784" s="7"/>
+    </row>
+    <row r="785" ht="15.75" customHeight="1">
+      <c r="A785" s="7"/>
+    </row>
+    <row r="786" ht="15.75" customHeight="1">
+      <c r="A786" s="7"/>
+    </row>
+    <row r="787" ht="15.75" customHeight="1">
+      <c r="A787" s="7"/>
+    </row>
+    <row r="788" ht="15.75" customHeight="1">
+      <c r="A788" s="7"/>
+    </row>
+    <row r="789" ht="15.75" customHeight="1">
+      <c r="A789" s="7"/>
+    </row>
+    <row r="790" ht="15.75" customHeight="1">
+      <c r="A790" s="7"/>
+    </row>
+    <row r="791" ht="15.75" customHeight="1">
+      <c r="A791" s="7"/>
+    </row>
+    <row r="792" ht="15.75" customHeight="1">
+      <c r="A792" s="7"/>
+    </row>
+    <row r="793" ht="15.75" customHeight="1">
+      <c r="A793" s="7"/>
+    </row>
+    <row r="794" ht="15.75" customHeight="1">
+      <c r="A794" s="7"/>
+    </row>
+    <row r="795" ht="15.75" customHeight="1">
+      <c r="A795" s="7"/>
+    </row>
+    <row r="796" ht="15.75" customHeight="1">
+      <c r="A796" s="7"/>
+    </row>
+    <row r="797" ht="15.75" customHeight="1">
+      <c r="A797" s="7"/>
+    </row>
+    <row r="798" ht="15.75" customHeight="1">
+      <c r="A798" s="7"/>
+    </row>
+    <row r="799" ht="15.75" customHeight="1">
+      <c r="A799" s="7"/>
+    </row>
+    <row r="800" ht="15.75" customHeight="1">
+      <c r="A800" s="7"/>
+    </row>
+    <row r="801" ht="15.75" customHeight="1">
+      <c r="A801" s="7"/>
+    </row>
+    <row r="802" ht="15.75" customHeight="1">
+      <c r="A802" s="7"/>
+    </row>
+    <row r="803" ht="15.75" customHeight="1">
+      <c r="A803" s="7"/>
+    </row>
+    <row r="804" ht="15.75" customHeight="1">
+      <c r="A804" s="7"/>
+    </row>
+    <row r="805" ht="15.75" customHeight="1">
+      <c r="A805" s="7"/>
+    </row>
+    <row r="806" ht="15.75" customHeight="1">
+      <c r="A806" s="7"/>
+    </row>
+    <row r="807" ht="15.75" customHeight="1">
+      <c r="A807" s="7"/>
+    </row>
+    <row r="808" ht="15.75" customHeight="1">
+      <c r="A808" s="7"/>
+    </row>
+    <row r="809" ht="15.75" customHeight="1">
+      <c r="A809" s="7"/>
+    </row>
+    <row r="810" ht="15.75" customHeight="1">
+      <c r="A810" s="7"/>
+    </row>
+    <row r="811" ht="15.75" customHeight="1">
+      <c r="A811" s="7"/>
+    </row>
+    <row r="812" ht="15.75" customHeight="1">
+      <c r="A812" s="7"/>
+    </row>
+    <row r="813" ht="15.75" customHeight="1">
+      <c r="A813" s="7"/>
+    </row>
+    <row r="814" ht="15.75" customHeight="1">
+      <c r="A814" s="7"/>
+    </row>
+    <row r="815" ht="15.75" customHeight="1">
+      <c r="A815" s="7"/>
+    </row>
+    <row r="816" ht="15.75" customHeight="1">
+      <c r="A816" s="7"/>
+    </row>
+    <row r="817" ht="15.75" customHeight="1">
+      <c r="A817" s="7"/>
+    </row>
+    <row r="818" ht="15.75" customHeight="1">
+      <c r="A818" s="7"/>
+    </row>
+    <row r="819" ht="15.75" customHeight="1">
+      <c r="A819" s="7"/>
+    </row>
+    <row r="820" ht="15.75" customHeight="1">
+      <c r="A820" s="7"/>
+    </row>
+    <row r="821" ht="15.75" customHeight="1">
+      <c r="A821" s="7"/>
+    </row>
+    <row r="822" ht="15.75" customHeight="1">
+      <c r="A822" s="7"/>
+    </row>
+    <row r="823" ht="15.75" customHeight="1">
+      <c r="A823" s="7"/>
+    </row>
+    <row r="824" ht="15.75" customHeight="1">
+      <c r="A824" s="7"/>
+    </row>
+    <row r="825" ht="15.75" customHeight="1">
+      <c r="A825" s="7"/>
+    </row>
+    <row r="826" ht="15.75" customHeight="1">
+      <c r="A826" s="7"/>
+    </row>
+    <row r="827" ht="15.75" customHeight="1">
+      <c r="A827" s="7"/>
+    </row>
+    <row r="828" ht="15.75" customHeight="1">
+      <c r="A828" s="7"/>
+    </row>
+    <row r="829" ht="15.75" customHeight="1">
+      <c r="A829" s="7"/>
+    </row>
+    <row r="830" ht="15.75" customHeight="1">
+      <c r="A830" s="7"/>
+    </row>
+    <row r="831" ht="15.75" customHeight="1">
+      <c r="A831" s="7"/>
+    </row>
+    <row r="832" ht="15.75" customHeight="1">
+      <c r="A832" s="7"/>
+    </row>
+    <row r="833" ht="15.75" customHeight="1">
+      <c r="A833" s="7"/>
+    </row>
+    <row r="834" ht="15.75" customHeight="1">
+      <c r="A834" s="7"/>
+    </row>
+    <row r="835" ht="15.75" customHeight="1">
+      <c r="A835" s="7"/>
+    </row>
+    <row r="836" ht="15.75" customHeight="1">
+      <c r="A836" s="7"/>
+    </row>
+    <row r="837" ht="15.75" customHeight="1">
+      <c r="A837" s="7"/>
+    </row>
+    <row r="838" ht="15.75" customHeight="1">
+      <c r="A838" s="7"/>
+    </row>
+    <row r="839" ht="15.75" customHeight="1">
+      <c r="A839" s="7"/>
+    </row>
+    <row r="840" ht="15.75" customHeight="1">
+      <c r="A840" s="7"/>
+    </row>
+    <row r="841" ht="15.75" customHeight="1">
+      <c r="A841" s="7"/>
+    </row>
+    <row r="842" ht="15.75" customHeight="1">
+      <c r="A842" s="7"/>
+    </row>
+    <row r="843" ht="15.75" customHeight="1">
+      <c r="A843" s="7"/>
+    </row>
+    <row r="844" ht="15.75" customHeight="1">
+      <c r="A844" s="7"/>
+    </row>
+    <row r="845" ht="15.75" customHeight="1">
+      <c r="A845" s="7"/>
+    </row>
+    <row r="846" ht="15.75" customHeight="1">
+      <c r="A846" s="7"/>
+    </row>
+    <row r="847" ht="15.75" customHeight="1">
+      <c r="A847" s="7"/>
+    </row>
+    <row r="848" ht="15.75" customHeight="1">
+      <c r="A848" s="7"/>
+    </row>
+    <row r="849" ht="15.75" customHeight="1">
+      <c r="A849" s="7"/>
+    </row>
+    <row r="850" ht="15.75" customHeight="1">
+      <c r="A850" s="7"/>
+    </row>
+    <row r="851" ht="15.75" customHeight="1">
+      <c r="A851" s="7"/>
+    </row>
+    <row r="852" ht="15.75" customHeight="1">
+      <c r="A852" s="7"/>
+    </row>
+    <row r="853" ht="15.75" customHeight="1">
+      <c r="A853" s="7"/>
+    </row>
+    <row r="854" ht="15.75" customHeight="1">
+      <c r="A854" s="7"/>
+    </row>
+    <row r="855" ht="15.75" customHeight="1">
+      <c r="A855" s="7"/>
+    </row>
+    <row r="856" ht="15.75" customHeight="1">
+      <c r="A856" s="7"/>
+    </row>
+    <row r="857" ht="15.75" customHeight="1">
+      <c r="A857" s="7"/>
+    </row>
+    <row r="858" ht="15.75" customHeight="1">
+      <c r="A858" s="7"/>
+    </row>
+    <row r="859" ht="15.75" customHeight="1">
+      <c r="A859" s="7"/>
+    </row>
+    <row r="860" ht="15.75" customHeight="1">
+      <c r="A860" s="7"/>
+    </row>
+    <row r="861" ht="15.75" customHeight="1">
+      <c r="A861" s="7"/>
+    </row>
+    <row r="862" ht="15.75" customHeight="1">
+      <c r="A862" s="7"/>
+    </row>
+    <row r="863" ht="15.75" customHeight="1">
+      <c r="A863" s="7"/>
+    </row>
+    <row r="864" ht="15.75" customHeight="1">
+      <c r="A864" s="7"/>
+    </row>
+    <row r="865" ht="15.75" customHeight="1">
+      <c r="A865" s="7"/>
+    </row>
+    <row r="866" ht="15.75" customHeight="1">
+      <c r="A866" s="7"/>
+    </row>
+    <row r="867" ht="15.75" customHeight="1">
+      <c r="A867" s="7"/>
+    </row>
+    <row r="868" ht="15.75" customHeight="1">
+      <c r="A868" s="7"/>
+    </row>
+    <row r="869" ht="15.75" customHeight="1">
+      <c r="A869" s="7"/>
+    </row>
+    <row r="870" ht="15.75" customHeight="1">
+      <c r="A870" s="7"/>
+    </row>
+    <row r="871" ht="15.75" customHeight="1">
+      <c r="A871" s="7"/>
+    </row>
+    <row r="872" ht="15.75" customHeight="1">
+      <c r="A872" s="7"/>
+    </row>
+    <row r="873" ht="15.75" customHeight="1">
+      <c r="A873" s="7"/>
+    </row>
+    <row r="874" ht="15.75" customHeight="1">
+      <c r="A874" s="7"/>
+    </row>
+    <row r="875" ht="15.75" customHeight="1">
+      <c r="A875" s="7"/>
+    </row>
+    <row r="876" ht="15.75" customHeight="1">
+      <c r="A876" s="7"/>
+    </row>
+    <row r="877" ht="15.75" customHeight="1">
+      <c r="A877" s="7"/>
+    </row>
+    <row r="878" ht="15.75" customHeight="1">
+      <c r="A878" s="7"/>
+    </row>
+    <row r="879" ht="15.75" customHeight="1">
+      <c r="A879" s="7"/>
+    </row>
+    <row r="880" ht="15.75" customHeight="1">
+      <c r="A880" s="7"/>
+    </row>
+    <row r="881" ht="15.75" customHeight="1">
+      <c r="A881" s="7"/>
+    </row>
+    <row r="882" ht="15.75" customHeight="1">
+      <c r="A882" s="7"/>
+    </row>
+    <row r="883" ht="15.75" customHeight="1">
+      <c r="A883" s="7"/>
+    </row>
+    <row r="884" ht="15.75" customHeight="1">
+      <c r="A884" s="7"/>
+    </row>
+    <row r="885" ht="15.75" customHeight="1">
+      <c r="A885" s="7"/>
+    </row>
+    <row r="886" ht="15.75" customHeight="1">
+      <c r="A886" s="7"/>
+    </row>
+    <row r="887" ht="15.75" customHeight="1">
+      <c r="A887" s="7"/>
+    </row>
+    <row r="888" ht="15.75" customHeight="1">
+      <c r="A888" s="7"/>
+    </row>
+    <row r="889" ht="15.75" customHeight="1">
+      <c r="A889" s="7"/>
+    </row>
+    <row r="890" ht="15.75" customHeight="1">
+      <c r="A890" s="7"/>
+    </row>
+    <row r="891" ht="15.75" customHeight="1">
+      <c r="A891" s="7"/>
+    </row>
+    <row r="892" ht="15.75" customHeight="1">
+      <c r="A892" s="7"/>
+    </row>
+    <row r="893" ht="15.75" customHeight="1">
+      <c r="A893" s="7"/>
+    </row>
+    <row r="894" ht="15.75" customHeight="1">
+      <c r="A894" s="7"/>
+    </row>
+    <row r="895" ht="15.75" customHeight="1">
+      <c r="A895" s="7"/>
+    </row>
+    <row r="896" ht="15.75" customHeight="1">
+      <c r="A896" s="7"/>
+    </row>
+    <row r="897" ht="15.75" customHeight="1">
+      <c r="A897" s="7"/>
+    </row>
+    <row r="898" ht="15.75" customHeight="1">
+      <c r="A898" s="7"/>
+    </row>
+    <row r="899" ht="15.75" customHeight="1">
+      <c r="A899" s="7"/>
+    </row>
+    <row r="900" ht="15.75" customHeight="1">
+      <c r="A900" s="7"/>
+    </row>
+    <row r="901" ht="15.75" customHeight="1">
+      <c r="A901" s="7"/>
+    </row>
+    <row r="902" ht="15.75" customHeight="1">
+      <c r="A902" s="7"/>
+    </row>
+    <row r="903" ht="15.75" customHeight="1">
+      <c r="A903" s="7"/>
+    </row>
+    <row r="904" ht="15.75" customHeight="1">
+      <c r="A904" s="7"/>
+    </row>
+    <row r="905" ht="15.75" customHeight="1">
+      <c r="A905" s="7"/>
+    </row>
+    <row r="906" ht="15.75" customHeight="1">
+      <c r="A906" s="7"/>
+    </row>
+    <row r="907" ht="15.75" customHeight="1">
+      <c r="A907" s="7"/>
+    </row>
+    <row r="908" ht="15.75" customHeight="1">
+      <c r="A908" s="7"/>
+    </row>
+    <row r="909" ht="15.75" customHeight="1">
+      <c r="A909" s="7"/>
+    </row>
+    <row r="910" ht="15.75" customHeight="1">
+      <c r="A910" s="7"/>
+    </row>
+    <row r="911" ht="15.75" customHeight="1">
+      <c r="A911" s="7"/>
+    </row>
+    <row r="912" ht="15.75" customHeight="1">
+      <c r="A912" s="7"/>
+    </row>
+    <row r="913" ht="15.75" customHeight="1">
+      <c r="A913" s="7"/>
+    </row>
+    <row r="914" ht="15.75" customHeight="1">
+      <c r="A914" s="7"/>
+    </row>
+    <row r="915" ht="15.75" customHeight="1">
+      <c r="A915" s="7"/>
+    </row>
+    <row r="916" ht="15.75" customHeight="1">
+      <c r="A916" s="7"/>
+    </row>
+    <row r="917" ht="15.75" customHeight="1">
+      <c r="A917" s="7"/>
+    </row>
+    <row r="918" ht="15.75" customHeight="1">
+      <c r="A918" s="7"/>
+    </row>
+    <row r="919" ht="15.75" customHeight="1">
+      <c r="A919" s="7"/>
+    </row>
+    <row r="920" ht="15.75" customHeight="1">
+      <c r="A920" s="7"/>
+    </row>
+    <row r="921" ht="15.75" customHeight="1">
+      <c r="A921" s="7"/>
+    </row>
+    <row r="922" ht="15.75" customHeight="1">
+      <c r="A922" s="7"/>
+    </row>
+    <row r="923" ht="15.75" customHeight="1">
+      <c r="A923" s="7"/>
+    </row>
+    <row r="924" ht="15.75" customHeight="1">
+      <c r="A924" s="7"/>
+    </row>
+    <row r="925" ht="15.75" customHeight="1">
+      <c r="A925" s="7"/>
+    </row>
+    <row r="926" ht="15.75" customHeight="1">
+      <c r="A926" s="7"/>
+    </row>
+    <row r="927" ht="15.75" customHeight="1">
+      <c r="A927" s="7"/>
+    </row>
+    <row r="928" ht="15.75" customHeight="1">
+      <c r="A928" s="7"/>
+    </row>
+    <row r="929" ht="15.75" customHeight="1">
+      <c r="A929" s="7"/>
+    </row>
+    <row r="930" ht="15.75" customHeight="1">
+      <c r="A930" s="7"/>
+    </row>
+    <row r="931" ht="15.75" customHeight="1">
+      <c r="A931" s="7"/>
+    </row>
+    <row r="932" ht="15.75" customHeight="1">
+      <c r="A932" s="7"/>
+    </row>
+    <row r="933" ht="15.75" customHeight="1">
+      <c r="A933" s="7"/>
+    </row>
+    <row r="934" ht="15.75" customHeight="1">
+      <c r="A934" s="7"/>
+    </row>
+    <row r="935" ht="15.75" customHeight="1">
+      <c r="A935" s="7"/>
+    </row>
+    <row r="936" ht="15.75" customHeight="1">
+      <c r="A936" s="7"/>
+    </row>
+    <row r="937" ht="15.75" customHeight="1">
+      <c r="A937" s="7"/>
+    </row>
+    <row r="938" ht="15.75" customHeight="1">
+      <c r="A938" s="7"/>
+    </row>
+    <row r="939" ht="15.75" customHeight="1">
+      <c r="A939" s="7"/>
+    </row>
+    <row r="940" ht="15.75" customHeight="1">
+      <c r="A940" s="7"/>
+    </row>
+    <row r="941" ht="15.75" customHeight="1">
+      <c r="A941" s="7"/>
+    </row>
+    <row r="942" ht="15.75" customHeight="1">
+      <c r="A942" s="7"/>
+    </row>
+    <row r="943" ht="15.75" customHeight="1">
+      <c r="A943" s="7"/>
+    </row>
+    <row r="944" ht="15.75" customHeight="1">
+      <c r="A944" s="7"/>
+    </row>
+    <row r="945" ht="15.75" customHeight="1">
+      <c r="A945" s="7"/>
+    </row>
+    <row r="946" ht="15.75" customHeight="1">
+      <c r="A946" s="7"/>
+    </row>
+    <row r="947" ht="15.75" customHeight="1">
+      <c r="A947" s="7"/>
+    </row>
+    <row r="948" ht="15.75" customHeight="1">
+      <c r="A948" s="7"/>
+    </row>
+    <row r="949" ht="15.75" customHeight="1">
+      <c r="A949" s="7"/>
+    </row>
+    <row r="950" ht="15.75" customHeight="1">
+      <c r="A950" s="7"/>
+    </row>
+    <row r="951" ht="15.75" customHeight="1">
+      <c r="A951" s="7"/>
+    </row>
+    <row r="952" ht="15.75" customHeight="1">
+      <c r="A952" s="7"/>
+    </row>
+    <row r="953" ht="15.75" customHeight="1">
+      <c r="A953" s="7"/>
+    </row>
+    <row r="954" ht="15.75" customHeight="1">
+      <c r="A954" s="7"/>
+    </row>
+    <row r="955" ht="15.75" customHeight="1">
+      <c r="A955" s="7"/>
+    </row>
+    <row r="956" ht="15.75" customHeight="1">
+      <c r="A956" s="7"/>
+    </row>
+    <row r="957" ht="15.75" customHeight="1">
+      <c r="A957" s="7"/>
+    </row>
+    <row r="958" ht="15.75" customHeight="1">
+      <c r="A958" s="7"/>
+    </row>
+    <row r="959" ht="15.75" customHeight="1">
+      <c r="A959" s="7"/>
+    </row>
+    <row r="960" ht="15.75" customHeight="1">
+      <c r="A960" s="7"/>
+    </row>
+    <row r="961" ht="15.75" customHeight="1">
+      <c r="A961" s="7"/>
+    </row>
+    <row r="962" ht="15.75" customHeight="1">
+      <c r="A962" s="7"/>
+    </row>
+    <row r="963" ht="15.75" customHeight="1">
+      <c r="A963" s="7"/>
+    </row>
+    <row r="964" ht="15.75" customHeight="1">
+      <c r="A964" s="7"/>
+    </row>
+    <row r="965" ht="15.75" customHeight="1">
+      <c r="A965" s="7"/>
+    </row>
+    <row r="966" ht="15.75" customHeight="1">
+      <c r="A966" s="7"/>
+    </row>
+    <row r="967" ht="15.75" customHeight="1">
+      <c r="A967" s="7"/>
+    </row>
+    <row r="968" ht="15.75" customHeight="1">
+      <c r="A968" s="7"/>
+    </row>
+    <row r="969" ht="15.75" customHeight="1">
+      <c r="A969" s="7"/>
+    </row>
+    <row r="970" ht="15.75" customHeight="1">
+      <c r="A970" s="7"/>
+    </row>
+    <row r="971" ht="15.75" customHeight="1">
+      <c r="A971" s="7"/>
+    </row>
+    <row r="972" ht="15.75" customHeight="1">
+      <c r="A972" s="7"/>
+    </row>
+    <row r="973" ht="15.75" customHeight="1">
+      <c r="A973" s="7"/>
+    </row>
+    <row r="974" ht="15.75" customHeight="1">
+      <c r="A974" s="7"/>
+    </row>
+    <row r="975" ht="15.75" customHeight="1">
+      <c r="A975" s="7"/>
+    </row>
+    <row r="976" ht="15.75" customHeight="1">
+      <c r="A976" s="7"/>
+    </row>
+    <row r="977" ht="15.75" customHeight="1">
+      <c r="A977" s="7"/>
+    </row>
+    <row r="978" ht="15.75" customHeight="1">
+      <c r="A978" s="7"/>
+    </row>
+    <row r="979" ht="15.75" customHeight="1">
+      <c r="A979" s="7"/>
+    </row>
+    <row r="980" ht="15.75" customHeight="1">
+      <c r="A980" s="7"/>
+    </row>
+    <row r="981" ht="15.75" customHeight="1">
+      <c r="A981" s="7"/>
+    </row>
+    <row r="982" ht="15.75" customHeight="1">
+      <c r="A982" s="7"/>
+    </row>
+    <row r="983" ht="15.75" customHeight="1">
+      <c r="A983" s="7"/>
+    </row>
+    <row r="984" ht="15.75" customHeight="1">
+      <c r="A984" s="7"/>
+    </row>
+    <row r="985" ht="15.75" customHeight="1">
+      <c r="A985" s="7"/>
+    </row>
+    <row r="986" ht="15.75" customHeight="1">
+      <c r="A986" s="7"/>
+    </row>
+    <row r="987" ht="15.75" customHeight="1">
+      <c r="A987" s="7"/>
+    </row>
+    <row r="988" ht="15.75" customHeight="1">
+      <c r="A988" s="7"/>
+    </row>
+    <row r="989" ht="15.75" customHeight="1">
+      <c r="A989" s="7"/>
+    </row>
+    <row r="990" ht="15.75" customHeight="1">
+      <c r="A990" s="7"/>
+    </row>
+    <row r="991" ht="15.75" customHeight="1">
+      <c r="A991" s="7"/>
+    </row>
+    <row r="992" ht="15.75" customHeight="1">
+      <c r="A992" s="7"/>
+    </row>
+    <row r="993" ht="15.75" customHeight="1">
+      <c r="A993" s="7"/>
+    </row>
+    <row r="994" ht="15.75" customHeight="1">
+      <c r="A994" s="7"/>
+    </row>
+    <row r="995" ht="15.75" customHeight="1">
+      <c r="A995" s="7"/>
+    </row>
+    <row r="996" ht="15.75" customHeight="1">
+      <c r="A996" s="7"/>
+    </row>
+    <row r="997" ht="15.75" customHeight="1">
+      <c r="A997" s="7"/>
+    </row>
+    <row r="998" ht="15.75" customHeight="1">
+      <c r="A998" s="7"/>
+    </row>
+    <row r="999" ht="15.75" customHeight="1">
+      <c r="A999" s="7"/>
+    </row>
+    <row r="1000" ht="15.75" customHeight="1">
+      <c r="A1000" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/public/temp/Jadepay_Onboarded_Customer_Data_Template.xlsx
+++ b/public/temp/Jadepay_Onboarded_Customer_Data_Template.xlsx
@@ -33,8 +33,7 @@
     <t>Passport</t>
   </si>
   <si>
-    <t xml:space="preserve">DOB 
-(MM/DD/YYYY)</t>
+    <t xml:space="preserve">DOB (MM/DD/YYYY)</t>
   </si>
   <si>
     <t xml:space="preserve">Issue Date</t>
@@ -139,7 +138,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <color indexed="64"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -350,11 +348,11 @@
         </patternFill>
       </fill>
       <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <diagonal/>
+        <left style="none"/>
+        <right style="none"/>
+        <top style="none"/>
+        <bottom style="none"/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -366,11 +364,11 @@
         </patternFill>
       </fill>
       <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <diagonal/>
+        <left style="none"/>
+        <right style="none"/>
+        <top style="none"/>
+        <bottom style="none"/>
+        <diagonal style="none"/>
       </border>
     </dxf>
   </dxfs>
@@ -915,7 +913,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="AC1" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A1" zoomScale="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
